--- a/schemas/BookingAndRelease_iepd/artifacts/Booking_MappingSpreadsheet.xlsx
+++ b/schemas/BookingAndRelease_iepd/artifacts/Booking_MappingSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimPingel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buddi/Desktop/JTMP-Data-Exchange-Specs/schemas/BookingAndRelease_iepd/artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3096D986-C6F1-450E-AF67-02D5548D92A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886070C4-A5B0-1C4B-9F8C-3EBDDA48E023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="2730" windowWidth="21600" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Booking" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="1077">
   <si>
     <t>Property Type</t>
   </si>
@@ -4333,12 +4333,33 @@
   <si>
     <t>Delete every element other than nc:IdentificationID within scr:WarrantAugmentation/scr:WarrantIdentification</t>
   </si>
+  <si>
+    <t>CourtType</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Indicator or the Default court to which the charge is filed (State or Municipal &amp; Traffic)</t>
+  </si>
+  <si>
+    <t>nola-ext:CourtType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[1]/nola-ext:ChargeAugmentation/nola-ext:CourtType
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[2]/nola-ext:ChargeAugmentation/nola-ext:CourtType
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[3]/nola-ext:ChargeAugmentation/nola-ext:CourtType
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[4]/nola-ext:ChargeAugmentation/nola-ext:CourtType
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[5]/nola-ext:ChargeAugmentation/nola-ext:CourtType
+/nola:BookingExchange/j:Booking/j:Arrest/j:ArrestCharge[6]/nola-ext:ChargeAugmentation/nola-ext:CourtType
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -4553,7 +4574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4622,17 +4643,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5238,8 +5272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF064094-7F47-BE41-BBAE-756DF04C616C}" name="MappingSpreadsheet32" displayName="MappingSpreadsheet32" ref="A1:P190" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="A1:P190" xr:uid="{AF064094-7F47-BE41-BBAE-756DF04C616C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF064094-7F47-BE41-BBAE-756DF04C616C}" name="MappingSpreadsheet32" displayName="MappingSpreadsheet32" ref="A1:P191" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="A1:P191" xr:uid="{AF064094-7F47-BE41-BBAE-756DF04C616C}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F42B62ED-D9CE-F940-A2BF-ED65FA02AF14}" name="Property Type" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{11AEDBC7-D98C-E14A-A838-95401F272177}" name="ID" dataDxfId="14"/>
@@ -5559,34 +5593,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B390143-938F-D746-8797-AAFFA7809748}">
-  <dimension ref="A1:P190"/>
+  <dimension ref="A1:P191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="E56" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="80.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="76.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="5" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="80.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="76.5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="27.5" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
     <col min="16" max="16" width="56" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5636,7 +5669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -5670,7 +5703,7 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" s="18" customFormat="1">
+    <row r="3" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>22</v>
       </c>
@@ -5708,7 +5741,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
@@ -5752,7 +5785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -5796,7 +5829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
@@ -5840,7 +5873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
@@ -5884,7 +5917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
@@ -5928,7 +5961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
@@ -5972,7 +6005,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>3</v>
       </c>
@@ -6016,7 +6049,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>3</v>
       </c>
@@ -6062,7 +6095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>3</v>
       </c>
@@ -6106,7 +6139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>3</v>
       </c>
@@ -6150,7 +6183,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>3</v>
       </c>
@@ -6194,7 +6227,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>3</v>
       </c>
@@ -6238,7 +6271,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>3</v>
       </c>
@@ -6282,7 +6315,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>3</v>
       </c>
@@ -6326,7 +6359,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>3</v>
       </c>
@@ -6370,7 +6403,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>2</v>
       </c>
@@ -6402,7 +6435,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>3</v>
       </c>
@@ -6446,7 +6479,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>3</v>
       </c>
@@ -6490,7 +6523,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>2</v>
       </c>
@@ -6526,7 +6559,7 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
@@ -6566,7 +6599,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>22</v>
       </c>
@@ -6606,7 +6639,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>22</v>
       </c>
@@ -6644,7 +6677,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>22</v>
       </c>
@@ -6684,7 +6717,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>3</v>
       </c>
@@ -6728,7 +6761,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>3</v>
       </c>
@@ -6772,7 +6805,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>3</v>
       </c>
@@ -6816,7 +6849,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="24" customFormat="1">
+    <row r="30" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>3</v>
       </c>
@@ -6860,7 +6893,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="24" customFormat="1">
+    <row r="31" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>3</v>
       </c>
@@ -6904,7 +6937,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>2</v>
       </c>
@@ -6936,7 +6969,7 @@
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>3</v>
       </c>
@@ -6976,7 +7009,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>3</v>
       </c>
@@ -7016,7 +7049,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>3</v>
       </c>
@@ -7056,7 +7089,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>3</v>
       </c>
@@ -7096,7 +7129,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>3</v>
       </c>
@@ -7136,7 +7169,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>2</v>
       </c>
@@ -7166,7 +7199,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>3</v>
       </c>
@@ -7210,7 +7243,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>2</v>
       </c>
@@ -7240,7 +7273,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>3</v>
       </c>
@@ -7284,7 +7317,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>22</v>
       </c>
@@ -7324,7 +7357,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>3</v>
       </c>
@@ -7368,7 +7401,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>3</v>
       </c>
@@ -7408,7 +7441,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>3</v>
       </c>
@@ -7452,7 +7485,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
         <v>22</v>
       </c>
@@ -7490,7 +7523,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
         <v>22</v>
       </c>
@@ -7528,7 +7561,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>3</v>
       </c>
@@ -7572,7 +7605,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>3</v>
       </c>
@@ -7616,7 +7649,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>2</v>
       </c>
@@ -7652,7 +7685,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
         <v>22</v>
       </c>
@@ -7690,7 +7723,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
         <v>22</v>
       </c>
@@ -7728,7 +7761,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>2</v>
       </c>
@@ -7758,7 +7791,7 @@
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>3</v>
       </c>
@@ -7802,7 +7835,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>3</v>
       </c>
@@ -7846,7 +7879,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>3</v>
       </c>
@@ -7890,7 +7923,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>3</v>
       </c>
@@ -7934,7 +7967,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>3</v>
       </c>
@@ -7978,7 +8011,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>3</v>
       </c>
@@ -8022,7 +8055,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>3</v>
       </c>
@@ -8066,7 +8099,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
         <v>22</v>
       </c>
@@ -8106,7 +8139,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>3</v>
       </c>
@@ -8152,227 +8185,231 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
-      <c r="A63" s="21" t="s">
+    <row r="63" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="J63" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="K63" s="32" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L63" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="34" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B64" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D64" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E64" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F64" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="G63" s="22" t="s">
+      <c r="G64" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11" t="s">
+      <c r="H64" s="11"/>
+      <c r="I64" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="J64" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K64" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="L63" s="11" t="s">
+      <c r="L64" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11" t="s">
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="15" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B65" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D65" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="12" t="s">
+      <c r="E65" s="16"/>
+      <c r="F65" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="G64" s="16"/>
-      <c r="H64" s="12" t="s">
+      <c r="G65" s="16"/>
+      <c r="H65" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>387</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>32</v>
+        <v>391</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11" t="s">
-        <v>397</v>
+        <v>20</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
       <c r="P66" s="11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>387</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>401</v>
+        <v>32</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>403</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
       <c r="K67" s="11" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>405</v>
+        <v>72</v>
       </c>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="A68" s="21" t="s">
-        <v>22</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="E68" s="22" t="s">
-        <v>408</v>
+      <c r="E68" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="G68" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="G68" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
+      <c r="H68" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>403</v>
+      </c>
       <c r="K68" s="11" t="s">
         <v>404</v>
       </c>
@@ -8383,1092 +8420,1086 @@
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
       <c r="P68" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
-      <c r="A69" s="15" t="s">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B70" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D70" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="12" t="s">
+      <c r="E70" s="16"/>
+      <c r="F70" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="G69" s="16"/>
-      <c r="H69" s="12" t="s">
+      <c r="G70" s="16"/>
+      <c r="H70" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12" t="s">
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="L69" s="12" t="s">
+      <c r="L70" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="M69" s="12" t="s">
+      <c r="M70" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>412</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>32</v>
+        <v>419</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>28</v>
+        <v>421</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>28</v>
+        <v>421</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>412</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>434</v>
+        <v>28</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>434</v>
+        <v>28</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>133</v>
+        <v>428</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>72</v>
+        <v>429</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
       <c r="P72" s="11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>412</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>439</v>
+        <v>133</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>429</v>
+        <v>72</v>
       </c>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
       <c r="P73" s="11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>412</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>21</v>
+        <v>429</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
       <c r="P74" s="11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>412</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>452</v>
+        <v>21</v>
       </c>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
-      <c r="A76" s="15" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B77" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D77" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="12" t="s">
+      <c r="E77" s="16"/>
+      <c r="F77" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="G76" s="16"/>
-      <c r="H76" s="12" t="s">
+      <c r="G77" s="16"/>
+      <c r="H77" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12" t="s">
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="L76" s="12" t="s">
+      <c r="L77" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77" s="21" t="s">
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B78" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D78" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="E77" s="22" t="s">
+      <c r="E78" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F78" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="G77" s="22" t="s">
+      <c r="G78" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11" t="s">
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="L77" s="11" t="s">
+      <c r="L78" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11" t="s">
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
-      <c r="A78" s="15" t="s">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B79" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D79" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="12" t="s">
+      <c r="E79" s="16"/>
+      <c r="F79" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="12" t="s">
+      <c r="G79" s="16"/>
+      <c r="H79" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12" t="s">
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="L78" s="12" t="s">
+      <c r="L79" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12" t="s">
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
-      <c r="A79" s="21" t="s">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B80" s="20" t="s">
         <v>465</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="L79" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="A80" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>469</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>188</v>
+      <c r="D80" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>412</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="G80" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="G80" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H80" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>472</v>
-      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
       <c r="K80" s="11" t="s">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>193</v>
+        <v>423</v>
       </c>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
       <c r="P80" s="11" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81" s="21" t="s">
-        <v>22</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D81" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
+      <c r="D81" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>472</v>
+      </c>
       <c r="K81" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>479</v>
+        <v>193</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
-      <c r="A82" s="15" t="s">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B83" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D83" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="16"/>
-      <c r="F82" s="12" t="s">
+      <c r="E83" s="16"/>
+      <c r="F83" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="G82" s="16"/>
-      <c r="H82" s="12" t="s">
+      <c r="G83" s="16"/>
+      <c r="H83" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12" t="s">
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-    </row>
-    <row r="83" spans="1:16">
-      <c r="A83" s="19" t="s">
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B84" s="20" t="s">
         <v>484</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="L83" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="A84" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>490</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>161</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>320</v>
+        <v>485</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="G84" s="22" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
+        <v>485</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>487</v>
+      </c>
       <c r="K84" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>494</v>
+        <v>72</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
       <c r="P84" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
-      <c r="A85" s="15" t="s">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B86" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D86" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="12" t="s">
+      <c r="E86" s="16"/>
+      <c r="F86" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="G85" s="16"/>
-      <c r="H85" s="12" t="s">
+      <c r="G86" s="16"/>
+      <c r="H86" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12" t="s">
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="L85" s="12" t="s">
+      <c r="L86" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-    </row>
-    <row r="86" spans="1:16">
-      <c r="A86" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="K86" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="L86" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>497</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>510</v>
+        <v>72</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>497</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>514</v>
+        <v>68</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="G88" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>517</v>
+        <v>77</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
-      <c r="A89" s="15" t="s">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B90" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D90" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="12" t="s">
+      <c r="E90" s="16"/>
+      <c r="F90" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="G89" s="16"/>
-      <c r="H89" s="12" t="s">
+      <c r="G90" s="16"/>
+      <c r="H90" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-    </row>
-    <row r="90" spans="1:16">
-      <c r="A90" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="L90" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>521</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>531</v>
+        <v>197</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
       <c r="K91" s="11" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>521</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>32</v>
+        <v>531</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="J92" s="11" t="s">
-        <v>539</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
       <c r="K92" s="11" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>21</v>
+        <v>534</v>
       </c>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>521</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>544</v>
+        <v>32</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>548</v>
+        <v>21</v>
       </c>
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>521</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>32</v>
+        <v>544</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>21</v>
+        <v>548</v>
       </c>
       <c r="M94" s="11"/>
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
       <c r="P94" s="11" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>521</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L95" s="11" t="s">
         <v>21</v>
@@ -9477,112 +9508,116 @@
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
-      <c r="A96" s="15" t="s">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B97" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C97" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="D97" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E96" s="16"/>
-      <c r="F96" s="12" t="s">
+      <c r="E97" s="16"/>
+      <c r="F97" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="G96" s="16"/>
-      <c r="H96" s="12" t="s">
+      <c r="G97" s="16"/>
+      <c r="H97" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12" t="s">
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="L96" s="12" t="s">
+      <c r="L97" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
-    </row>
-    <row r="97" spans="1:16">
-      <c r="A97" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="L97" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>563</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
       <c r="K98" s="11" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L98" s="11" t="s">
         <v>72</v>
@@ -9591,430 +9626,430 @@
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
       <c r="P98" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
-      <c r="A99" s="15" t="s">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B100" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C100" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D100" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="12" t="s">
+      <c r="E100" s="16"/>
+      <c r="F100" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="G99" s="16"/>
-      <c r="H99" s="12" t="s">
+      <c r="G100" s="16"/>
+      <c r="H100" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12" t="s">
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="L99" s="12" t="s">
+      <c r="L100" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="M99" s="12" t="s">
+      <c r="M100" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12" t="s">
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
-      <c r="A100" s="21" t="s">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B101" s="20" t="s">
         <v>582</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="G100" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="L100" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
-      <c r="A101" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>586</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>32</v>
+      <c r="D101" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>202</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H101" s="11" t="s">
-        <v>587</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H101" s="11"/>
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
       <c r="K101" s="11" t="s">
-        <v>589</v>
+        <v>270</v>
       </c>
       <c r="L101" s="11" t="s">
-        <v>21</v>
+        <v>585</v>
       </c>
       <c r="M101" s="11"/>
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
-      <c r="A102" s="15" t="s">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B103" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C103" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D102" s="12" t="s">
+      <c r="D103" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E102" s="16"/>
-      <c r="F102" s="12" t="s">
+      <c r="E103" s="16"/>
+      <c r="F103" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="G102" s="16"/>
-      <c r="H102" s="12" t="s">
+      <c r="G103" s="16"/>
+      <c r="H103" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-    </row>
-    <row r="103" spans="1:16">
-      <c r="A103" s="19" t="s">
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+    </row>
+    <row r="104" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B104" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C104" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D104" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E104" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F103" s="11" t="s">
+      <c r="F104" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="G103" s="11" t="s">
+      <c r="G104" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H103" s="11" t="s">
+      <c r="H104" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="I104" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="J103" s="11" t="s">
+      <c r="J104" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="K103" s="11" t="s">
+      <c r="K104" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="L103" s="11" t="s">
+      <c r="L104" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M103" s="11"/>
-      <c r="N103" s="11"/>
-      <c r="O103" s="11"/>
-      <c r="P103" s="11" t="s">
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="18" customFormat="1">
-      <c r="A104" s="17" t="s">
+    <row r="105" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10" t="s">
+      <c r="B105" s="10"/>
+      <c r="C105" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D105" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E105" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="F105" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="G104" s="10" t="s">
+      <c r="G105" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H104" s="10" t="s">
+      <c r="H105" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10" t="s">
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="L104" s="10" t="s">
+      <c r="L105" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="M104" s="10"/>
-      <c r="N104" s="10"/>
-      <c r="O104" s="10"/>
-      <c r="P104" s="10" t="s">
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="105" spans="1:16" s="18" customFormat="1">
-      <c r="A105" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>604</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="I105" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="J105" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="K105" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" s="18" customFormat="1">
+    <row r="106" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>391</v>
+        <v>188</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G106" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="J106" s="13" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="K106" s="13" t="s">
-        <v>613</v>
+        <v>192</v>
       </c>
       <c r="L106" s="13" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="M106" s="13"/>
       <c r="N106" s="13"/>
       <c r="O106" s="13"/>
       <c r="P106" s="13" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A107" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="K107" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="L107" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
-      <c r="A107" s="15" t="s">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A108" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B108" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C108" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="D108" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="16"/>
-      <c r="F107" s="12" t="s">
+      <c r="E108" s="16"/>
+      <c r="F108" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="G107" s="16"/>
-      <c r="H107" s="12" t="s">
+      <c r="G108" s="16"/>
+      <c r="H108" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12" t="s">
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="L107" s="12" t="s">
+      <c r="L108" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12" t="s">
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
-      <c r="A108" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>621</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="L108" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
-      <c r="O108" s="11"/>
-      <c r="P108" s="11" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>616</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>627</v>
+        <v>569</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="11" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="L109" s="11" t="s">
         <v>72</v>
@@ -10023,38 +10058,38 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>616</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
       <c r="K110" s="11" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="L110" s="11" t="s">
         <v>72</v>
@@ -10063,249 +10098,245 @@
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
       <c r="P110" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A111" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
-      <c r="A111" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="16"/>
-      <c r="F111" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="G111" s="16"/>
-      <c r="H111" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-    </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="16"/>
       <c r="F112" s="12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G112" s="16"/>
       <c r="H112" s="12" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
+      <c r="M112" s="12" t="s">
+        <v>636</v>
+      </c>
       <c r="N112" s="12"/>
       <c r="O112" s="12"/>
-      <c r="P112" s="12" t="s">
+      <c r="P112" s="12"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A113" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="16"/>
+      <c r="F113" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G113" s="16"/>
+      <c r="H113" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
-      <c r="A113" s="19" t="s">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A114" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B114" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C114" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D114" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E114" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F113" s="11" t="s">
+      <c r="F114" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="G113" s="11" t="s">
+      <c r="G114" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H113" s="11" t="s">
+      <c r="H114" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="I113" s="11" t="s">
+      <c r="I114" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="J113" s="11" t="s">
+      <c r="J114" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="K113" s="11" t="s">
+      <c r="K114" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="L113" s="11" t="s">
+      <c r="L114" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M113" s="11"/>
-      <c r="N113" s="11"/>
-      <c r="O113" s="11"/>
-      <c r="P113" s="11" t="s">
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
-      <c r="A114" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E114" s="16"/>
-      <c r="F114" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="G114" s="16"/>
-      <c r="H114" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-    </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>140</v>
+        <v>646</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E115" s="16"/>
       <c r="F115" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G115" s="16"/>
       <c r="H115" s="12" t="s">
-        <v>140</v>
+        <v>646</v>
       </c>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
       <c r="M115" s="12" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="N115" s="12"/>
       <c r="O115" s="12"/>
       <c r="P115" s="12"/>
     </row>
-    <row r="116" spans="1:16">
-      <c r="A116" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="C116" s="11" t="s">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A116" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D116" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="I116" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="J116" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="K116" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="L116" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M116" s="11"/>
-      <c r="N116" s="11"/>
-      <c r="O116" s="11"/>
-      <c r="P116" s="11" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16">
+      <c r="D116" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="16"/>
+      <c r="F116" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="G116" s="16"/>
+      <c r="H116" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>419</v>
+        <v>32</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>654</v>
@@ -10314,234 +10345,238 @@
         <v>654</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L117" s="11" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="M117" s="11"/>
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
       <c r="P117" s="11" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>32</v>
+        <v>419</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>28</v>
+        <v>654</v>
       </c>
       <c r="J118" s="11" t="s">
-        <v>28</v>
+        <v>654</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>663</v>
+        <v>138</v>
       </c>
       <c r="L118" s="11" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="M118" s="11"/>
-      <c r="N118" s="11" t="s">
-        <v>664</v>
-      </c>
+      <c r="N118" s="11"/>
       <c r="O118" s="11"/>
       <c r="P118" s="11" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>669</v>
+        <v>28</v>
       </c>
       <c r="J119" s="11" t="s">
-        <v>669</v>
+        <v>28</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="L119" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M119" s="11"/>
-      <c r="N119" s="11"/>
+      <c r="N119" s="11" t="s">
+        <v>664</v>
+      </c>
       <c r="O119" s="11"/>
       <c r="P119" s="11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A120" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
-      <c r="A120" s="15" t="s">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A121" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B121" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C121" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D121" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E120" s="16"/>
-      <c r="F120" s="12" t="s">
+      <c r="E121" s="16"/>
+      <c r="F121" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="G120" s="16"/>
-      <c r="H120" s="12" t="s">
+      <c r="G121" s="16"/>
+      <c r="H121" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="12"/>
-      <c r="N120" s="12"/>
-      <c r="O120" s="12"/>
-      <c r="P120" s="12"/>
-    </row>
-    <row r="121" spans="1:16">
-      <c r="A121" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>674</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="D121" s="22" t="s">
-        <v>675</v>
-      </c>
-      <c r="E121" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="G121" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="L121" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="M121" s="11"/>
-      <c r="N121" s="11"/>
-      <c r="O121" s="11"/>
-      <c r="P121" s="11" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="D122" s="11" t="s">
-        <v>680</v>
+      <c r="D122" s="22" t="s">
+        <v>675</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>680</v>
+        <v>387</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H122" s="11"/>
       <c r="I122" s="11"/>
       <c r="J122" s="11"/>
       <c r="K122" s="11" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L122" s="11" t="s">
-        <v>683</v>
+        <v>534</v>
       </c>
       <c r="M122" s="11"/>
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
       <c r="P122" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>636</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G123" s="22" t="s">
         <v>151</v>
@@ -10555,7 +10590,7 @@
         <v>682</v>
       </c>
       <c r="L123" s="11" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="M123" s="11"/>
       <c r="N123" s="11"/>
@@ -10564,75 +10599,77 @@
         <v>165</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
-      <c r="A124" s="19" t="s">
-        <v>3</v>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A124" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>636</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>268</v>
+        <v>685</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>685</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>690</v>
-      </c>
-      <c r="G124" s="11" t="s">
-        <v>169</v>
+        <v>686</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="I124" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="J124" s="11" t="s">
-        <v>691</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
       <c r="K124" s="11" t="s">
-        <v>270</v>
+        <v>682</v>
       </c>
       <c r="L124" s="11" t="s">
-        <v>271</v>
+        <v>687</v>
       </c>
       <c r="M124" s="11"/>
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
       <c r="P124" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
-      <c r="A125" s="21" t="s">
-        <v>22</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A125" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="D125" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="E125" s="22" t="s">
-        <v>578</v>
+      <c r="E125" s="11" t="s">
+        <v>268</v>
       </c>
       <c r="F125" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="G125" s="22" t="s">
+      <c r="G125" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="11"/>
+      <c r="H125" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>691</v>
+      </c>
       <c r="K125" s="11" t="s">
         <v>270</v>
       </c>
@@ -10646,73 +10683,73 @@
         <v>272</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="D126" s="11" t="s">
-        <v>694</v>
+      <c r="D126" s="22" t="s">
+        <v>689</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>694</v>
+        <v>578</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="H126" s="11" t="s">
-        <v>28</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="H126" s="11"/>
       <c r="I126" s="11"/>
       <c r="J126" s="11"/>
       <c r="K126" s="11" t="s">
-        <v>696</v>
+        <v>270</v>
       </c>
       <c r="L126" s="11" t="s">
-        <v>697</v>
+        <v>271</v>
       </c>
       <c r="M126" s="11"/>
       <c r="N126" s="11"/>
       <c r="O126" s="11"/>
       <c r="P126" s="11" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="D127" s="22" t="s">
-        <v>700</v>
+      <c r="D127" s="11" t="s">
+        <v>694</v>
       </c>
       <c r="E127" s="22" t="s">
         <v>694</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H127" s="11"/>
+        <v>492</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="I127" s="11"/>
       <c r="J127" s="11"/>
       <c r="K127" s="11" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="L127" s="11" t="s">
         <v>697</v>
@@ -10721,1023 +10758,1017 @@
       <c r="N127" s="11"/>
       <c r="O127" s="11"/>
       <c r="P127" s="11" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A128" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="L128" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
-      <c r="A128" s="15" t="s">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A129" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B129" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C129" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="D129" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E128" s="16"/>
-      <c r="F128" s="12" t="s">
+      <c r="E129" s="16"/>
+      <c r="F129" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="G128" s="16"/>
-      <c r="H128" s="12" t="s">
+      <c r="G129" s="16"/>
+      <c r="H129" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="12"/>
-      <c r="M128" s="12"/>
-      <c r="N128" s="12"/>
-      <c r="O128" s="12"/>
-      <c r="P128" s="12"/>
-    </row>
-    <row r="129" spans="1:16">
-      <c r="A129" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B129" s="20" t="s">
-        <v>706</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>680</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>709</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H129" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="L129" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M129" s="11"/>
-      <c r="N129" s="11"/>
-      <c r="O129" s="11"/>
-      <c r="P129" s="11" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16">
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="12"/>
+      <c r="P129" s="12"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>680</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="J130" s="11" t="s">
-        <v>716</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
       <c r="K130" s="11" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="L130" s="11" t="s">
-        <v>718</v>
+        <v>21</v>
       </c>
       <c r="M130" s="11"/>
       <c r="N130" s="11"/>
-      <c r="O130" s="11" t="s">
-        <v>719</v>
-      </c>
+      <c r="O130" s="11"/>
       <c r="P130" s="11" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>680</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="K131" s="11" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="L131" s="11" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="M131" s="11"/>
       <c r="N131" s="11"/>
-      <c r="O131" s="11"/>
+      <c r="O131" s="11" t="s">
+        <v>719</v>
+      </c>
       <c r="P131" s="11" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>680</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="J132" s="11" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="L132" s="11" t="s">
-        <v>21</v>
+        <v>726</v>
       </c>
       <c r="M132" s="11"/>
       <c r="N132" s="11"/>
       <c r="O132" s="11"/>
       <c r="P132" s="11" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>680</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>736</v>
+        <v>32</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="J133" s="11" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="K133" s="11" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="L133" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M133" s="11"/>
       <c r="N133" s="11"/>
-      <c r="O133" s="11" t="s">
-        <v>719</v>
-      </c>
+      <c r="O133" s="11"/>
       <c r="P133" s="11" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>680</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>175</v>
+        <v>736</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>744</v>
+        <v>34</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="J134" s="11" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="K134" s="11" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="L134" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M134" s="11"/>
-      <c r="N134" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="O134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11" t="s">
+        <v>719</v>
+      </c>
       <c r="P134" s="11" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>680</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>751</v>
+        <v>175</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>744</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>28</v>
+        <v>745</v>
       </c>
       <c r="J135" s="11" t="s">
-        <v>28</v>
+        <v>745</v>
       </c>
       <c r="K135" s="11" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="L135" s="11" t="s">
-        <v>754</v>
+        <v>21</v>
       </c>
       <c r="M135" s="11"/>
       <c r="N135" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="O135" s="11" t="s">
-        <v>753</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="O135" s="11"/>
       <c r="P135" s="11" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>680</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>32</v>
+        <v>751</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>34</v>
+        <v>744</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>760</v>
+        <v>28</v>
       </c>
       <c r="J136" s="11" t="s">
-        <v>760</v>
+        <v>28</v>
       </c>
       <c r="K136" s="11" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="L136" s="11" t="s">
-        <v>21</v>
+        <v>754</v>
       </c>
       <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
-      <c r="O136" s="11"/>
+      <c r="N136" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="O136" s="11" t="s">
+        <v>753</v>
+      </c>
       <c r="P136" s="11" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>680</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E137" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="J137" s="11" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="K137" s="11" t="s">
-        <v>47</v>
+        <v>761</v>
       </c>
       <c r="L137" s="11" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M137" s="11"/>
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
       <c r="P137" s="11" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16">
-      <c r="A138" s="21" t="s">
-        <v>22</v>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A138" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="D138" s="22" t="s">
-        <v>769</v>
-      </c>
-      <c r="E138" s="22" t="s">
-        <v>521</v>
+      <c r="D138" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>770</v>
-      </c>
-      <c r="G138" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="G138" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
-      <c r="J138" s="11"/>
+      <c r="H138" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>766</v>
+      </c>
       <c r="K138" s="11" t="s">
-        <v>771</v>
+        <v>47</v>
       </c>
       <c r="L138" s="11" t="s">
-        <v>772</v>
+        <v>42</v>
       </c>
       <c r="M138" s="11"/>
       <c r="N138" s="11"/>
       <c r="O138" s="11"/>
       <c r="P138" s="11" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16">
-      <c r="A139" s="19" t="s">
-        <v>3</v>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A139" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="D139" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>32</v>
+      <c r="D139" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="E139" s="22" t="s">
+        <v>521</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>776</v>
-      </c>
-      <c r="G139" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="G139" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H139" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="I139" s="11" t="s">
-        <v>777</v>
-      </c>
-      <c r="J139" s="11" t="s">
-        <v>777</v>
-      </c>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
       <c r="K139" s="11" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="L139" s="11" t="s">
-        <v>21</v>
+        <v>772</v>
       </c>
       <c r="M139" s="11"/>
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
       <c r="P139" s="11" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C140" s="11" t="s">
         <v>680</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="E140" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="J140" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="K140" s="11" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="L140" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M140" s="11"/>
       <c r="N140" s="11"/>
-      <c r="O140" s="11" t="s">
-        <v>785</v>
-      </c>
+      <c r="O140" s="11"/>
       <c r="P140" s="11" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>680</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>789</v>
+        <v>32</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>730</v>
+        <v>782</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="J141" s="11" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="K141" s="11" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="L141" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M141" s="11"/>
       <c r="N141" s="11"/>
-      <c r="O141" s="11"/>
+      <c r="O141" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="P141" s="11" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C142" s="11" t="s">
         <v>680</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>544</v>
+        <v>789</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>795</v>
+        <v>730</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="J142" s="11" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="K142" s="11" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="L142" s="11" t="s">
-        <v>548</v>
+        <v>21</v>
       </c>
       <c r="M142" s="11"/>
       <c r="N142" s="11"/>
       <c r="O142" s="11"/>
       <c r="P142" s="11" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>680</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>175</v>
+        <v>544</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="G143" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="J143" s="11" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="K143" s="11" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="L143" s="11" t="s">
-        <v>21</v>
+        <v>548</v>
       </c>
       <c r="M143" s="11"/>
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
       <c r="P143" s="11" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A144" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>799</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="K144" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="L144" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+      <c r="O144" s="11"/>
+      <c r="P144" s="11" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
-      <c r="A144" s="15" t="s">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A145" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B145" s="12" t="s">
         <v>805</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C145" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="D144" s="12" t="s">
+      <c r="D145" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E144" s="16"/>
-      <c r="F144" s="12" t="s">
+      <c r="E145" s="16"/>
+      <c r="F145" s="12" t="s">
         <v>806</v>
       </c>
-      <c r="G144" s="16"/>
-      <c r="H144" s="12" t="s">
+      <c r="G145" s="16"/>
+      <c r="H145" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="I144" s="12"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="12"/>
-      <c r="L144" s="12"/>
-      <c r="M144" s="12"/>
-      <c r="N144" s="12"/>
-      <c r="O144" s="12"/>
-      <c r="P144" s="12"/>
-    </row>
-    <row r="145" spans="1:16">
-      <c r="A145" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="G145" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="I145" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="J145" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="K145" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="L145" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M145" s="11"/>
-      <c r="N145" s="11"/>
-      <c r="O145" s="11"/>
-      <c r="P145" s="11" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16">
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="12"/>
+      <c r="P145" s="12"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>685</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>514</v>
+        <v>32</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="J146" s="11" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="K146" s="11" t="s">
-        <v>517</v>
+        <v>133</v>
       </c>
       <c r="L146" s="11" t="s">
-        <v>518</v>
+        <v>72</v>
       </c>
       <c r="M146" s="11"/>
       <c r="N146" s="11"/>
       <c r="O146" s="11"/>
       <c r="P146" s="11" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>685</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>32</v>
+        <v>514</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="J147" s="11" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="K147" s="11" t="s">
-        <v>133</v>
+        <v>517</v>
       </c>
       <c r="L147" s="11" t="s">
-        <v>72</v>
+        <v>518</v>
       </c>
       <c r="M147" s="11"/>
       <c r="N147" s="11"/>
       <c r="O147" s="11"/>
       <c r="P147" s="11" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>685</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E148" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="J148" s="11" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="K148" s="11" t="s">
-        <v>826</v>
+        <v>133</v>
       </c>
       <c r="L148" s="11" t="s">
         <v>72</v>
       </c>
       <c r="M148" s="11"/>
-      <c r="N148" s="11" t="s">
-        <v>827</v>
-      </c>
+      <c r="N148" s="11"/>
       <c r="O148" s="11"/>
       <c r="P148" s="11" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16">
-      <c r="A149" s="21" t="s">
-        <v>22</v>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A149" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>685</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E149" s="22" t="s">
-        <v>497</v>
+        <v>823</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="G149" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="G149" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I149" s="11"/>
-      <c r="J149" s="11"/>
+        <v>823</v>
+      </c>
+      <c r="I149" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>825</v>
+      </c>
       <c r="K149" s="11" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="L149" s="11" t="s">
-        <v>500</v>
+        <v>72</v>
       </c>
       <c r="M149" s="11"/>
-      <c r="N149" s="11"/>
+      <c r="N149" s="11" t="s">
+        <v>827</v>
+      </c>
       <c r="O149" s="11"/>
       <c r="P149" s="11" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16">
-      <c r="A150" s="19" t="s">
-        <v>3</v>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A150" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>685</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>32</v>
+        <v>830</v>
+      </c>
+      <c r="E150" s="22" t="s">
+        <v>497</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="G150" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="G150" s="22" t="s">
         <v>34</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="I150" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="J150" s="11" t="s">
-        <v>835</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
       <c r="K150" s="11" t="s">
-        <v>133</v>
+        <v>499</v>
       </c>
       <c r="L150" s="11" t="s">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="M150" s="11"/>
       <c r="N150" s="11"/>
       <c r="O150" s="11"/>
       <c r="P150" s="11" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>685</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E151" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="J151" s="11" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="K151" s="11" t="s">
         <v>133</v>
@@ -11749,39 +11780,39 @@
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
       <c r="P151" s="11" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>685</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E152" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="J152" s="11" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="K152" s="11" t="s">
         <v>133</v>
@@ -11793,155 +11824,155 @@
       <c r="N152" s="11"/>
       <c r="O152" s="11"/>
       <c r="P152" s="11" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>685</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="E153" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="K153" s="11" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="L153" s="11" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="M153" s="11"/>
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
       <c r="P153" s="11" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A154" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>847</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="I154" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="J154" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="K154" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L154" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
-      <c r="A154" s="15" t="s">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A155" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B155" s="12" t="s">
         <v>852</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="C155" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="D154" s="12" t="s">
+      <c r="D155" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="16"/>
-      <c r="F154" s="12" t="s">
+      <c r="E155" s="16"/>
+      <c r="F155" s="12" t="s">
         <v>853</v>
       </c>
-      <c r="G154" s="16"/>
-      <c r="H154" s="12" t="s">
+      <c r="G155" s="16"/>
+      <c r="H155" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12" t="s">
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="L154" s="12" t="s">
+      <c r="L155" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="M154" s="12"/>
-      <c r="N154" s="12"/>
-      <c r="O154" s="12"/>
-      <c r="P154" s="12"/>
-    </row>
-    <row r="155" spans="1:16">
-      <c r="A155" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B155" s="20" t="s">
-        <v>854</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>694</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="J155" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="K155" s="11" t="s">
-        <v>858</v>
-      </c>
-      <c r="L155" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M155" s="11"/>
-      <c r="N155" s="11"/>
-      <c r="O155" s="11"/>
-      <c r="P155" s="11" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16">
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>694</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="I156" s="11" t="s">
         <v>857</v>
@@ -11959,178 +11990,176 @@
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
       <c r="P156" s="11" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C157" s="11" t="s">
         <v>694</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E157" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="K157" s="11" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="L157" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="M157" s="11" t="s">
-        <v>636</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M157" s="11"/>
       <c r="N157" s="11"/>
       <c r="O157" s="11"/>
       <c r="P157" s="11" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>694</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E158" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="K158" s="11" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="L158" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="M158" s="11"/>
+      <c r="M158" s="11" t="s">
+        <v>636</v>
+      </c>
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
       <c r="P158" s="11" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>694</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H159" s="11" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="K159" s="11" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="L159" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="M159" s="11" t="s">
-        <v>636</v>
-      </c>
+      <c r="M159" s="11"/>
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
       <c r="P159" s="11" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>694</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="J160" s="11" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="K160" s="11" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="L160" s="11" t="s">
         <v>869</v>
@@ -12141,45 +12170,45 @@
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
       <c r="P160" s="11" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>694</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="J161" s="11" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="K161" s="11" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="L161" s="11" t="s">
-        <v>21</v>
+        <v>869</v>
       </c>
       <c r="M161" s="11" t="s">
         <v>636</v>
@@ -12187,289 +12216,291 @@
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
       <c r="P161" s="11" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>694</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="J162" s="11" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="K162" s="11" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="L162" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="M162" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="M162" s="11" t="s">
+        <v>636</v>
+      </c>
       <c r="N162" s="11"/>
       <c r="O162" s="11"/>
       <c r="P162" s="11" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>694</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="G163" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H163" s="11" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="J163" s="11" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="K163" s="11" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="L163" s="11" t="s">
-        <v>21</v>
+        <v>869</v>
       </c>
       <c r="M163" s="11"/>
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
       <c r="P163" s="11" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A164" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="I164" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="J164" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="K164" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="L164" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M164" s="11"/>
+      <c r="N164" s="11"/>
+      <c r="O164" s="11"/>
+      <c r="P164" s="11" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
-      <c r="A164" s="15" t="s">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A165" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B164" s="12" t="s">
+      <c r="B165" s="12" t="s">
         <v>907</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="C165" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="D164" s="12" t="s">
+      <c r="D165" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E164" s="16"/>
-      <c r="F164" s="12" t="s">
+      <c r="E165" s="16"/>
+      <c r="F165" s="12" t="s">
         <v>908</v>
       </c>
-      <c r="G164" s="16"/>
-      <c r="H164" s="12" t="s">
+      <c r="G165" s="16"/>
+      <c r="H165" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I164" s="12"/>
-      <c r="J164" s="12"/>
-      <c r="K164" s="12"/>
-      <c r="L164" s="12"/>
-      <c r="M164" s="12"/>
-      <c r="N164" s="12"/>
-      <c r="O164" s="12"/>
-      <c r="P164" s="12"/>
-    </row>
-    <row r="165" spans="1:16">
-      <c r="A165" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B165" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>910</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F165" s="11" t="s">
-        <v>911</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>910</v>
-      </c>
-      <c r="I165" s="11" t="s">
-        <v>912</v>
-      </c>
-      <c r="J165" s="11" t="s">
-        <v>912</v>
-      </c>
-      <c r="K165" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="L165" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M165" s="11"/>
-      <c r="N165" s="11"/>
-      <c r="O165" s="11"/>
-      <c r="P165" s="11" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16">
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
+      <c r="P165" s="12"/>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>281</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G166" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="J166" s="11" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="K166" s="11" t="s">
-        <v>918</v>
+        <v>643</v>
       </c>
       <c r="L166" s="11" t="s">
-        <v>919</v>
+        <v>21</v>
       </c>
       <c r="M166" s="11"/>
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
       <c r="P166" s="11" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>281</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="G167" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="J167" s="11" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="K167" s="11" t="s">
-        <v>192</v>
+        <v>918</v>
       </c>
       <c r="L167" s="11" t="s">
-        <v>193</v>
+        <v>919</v>
       </c>
       <c r="M167" s="11"/>
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
       <c r="P167" s="11" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>281</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="E168" s="11" t="s">
         <v>188</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="G168" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="J168" s="11" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="K168" s="11" t="s">
         <v>192</v>
@@ -12481,157 +12512,157 @@
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
       <c r="P168" s="11" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A169" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>926</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="I169" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="J169" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="K169" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L169" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="M169" s="11"/>
+      <c r="N169" s="11"/>
+      <c r="O169" s="11"/>
+      <c r="P169" s="11" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
-      <c r="A169" s="15" t="s">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A170" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B170" s="12" t="s">
         <v>931</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="C170" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D169" s="12" t="s">
+      <c r="D170" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E169" s="16"/>
-      <c r="F169" s="12" t="s">
+      <c r="E170" s="16"/>
+      <c r="F170" s="12" t="s">
         <v>932</v>
       </c>
-      <c r="G169" s="16"/>
-      <c r="H169" s="12" t="s">
+      <c r="G170" s="16"/>
+      <c r="H170" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="I169" s="12"/>
-      <c r="J169" s="12"/>
-      <c r="K169" s="12"/>
-      <c r="L169" s="12"/>
-      <c r="M169" s="12"/>
-      <c r="N169" s="12"/>
-      <c r="O169" s="12"/>
-      <c r="P169" s="12"/>
-    </row>
-    <row r="170" spans="1:16">
-      <c r="A170" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B170" s="20" t="s">
-        <v>933</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>934</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>935</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H170" s="11" t="s">
-        <v>934</v>
-      </c>
-      <c r="I170" s="11" t="s">
-        <v>936</v>
-      </c>
-      <c r="J170" s="11" t="s">
-        <v>936</v>
-      </c>
-      <c r="K170" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="L170" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M170" s="11"/>
-      <c r="N170" s="11"/>
-      <c r="O170" s="11"/>
-      <c r="P170" s="11" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16">
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="12"/>
+      <c r="P170" s="12"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>367</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>366</v>
+        <v>934</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="G171" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H171" s="11" t="s">
-        <v>366</v>
+        <v>934</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="J171" s="11" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="K171" s="11" t="s">
-        <v>133</v>
+        <v>937</v>
       </c>
       <c r="L171" s="11" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="M171" s="11"/>
       <c r="N171" s="11"/>
       <c r="O171" s="11"/>
       <c r="P171" s="11" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>367</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>944</v>
+        <v>366</v>
       </c>
       <c r="E172" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="G172" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>944</v>
+        <v>366</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="J172" s="11" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="K172" s="11" t="s">
         <v>133</v>
@@ -12643,42 +12674,42 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
       <c r="P172" s="11" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>367</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="G173" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="J173" s="11" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="K173" s="11" t="s">
-        <v>951</v>
+        <v>133</v>
       </c>
       <c r="L173" s="11" t="s">
         <v>72</v>
@@ -12687,498 +12718,502 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
       <c r="P173" s="11" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>367</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="E174" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="J174" s="11" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="K174" s="11" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="L174" s="11" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="M174" s="11"/>
-      <c r="N174" s="11" t="s">
-        <v>958</v>
-      </c>
+      <c r="N174" s="11"/>
       <c r="O174" s="11"/>
       <c r="P174" s="11" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A175" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>953</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H175" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="I175" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="J175" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="K175" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="L175" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="O175" s="11"/>
+      <c r="P175" s="11" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
-      <c r="A175" s="15" t="s">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A176" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B176" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="C176" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="D175" s="12" t="s">
+      <c r="D176" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E175" s="16"/>
-      <c r="F175" s="12" t="s">
+      <c r="E176" s="16"/>
+      <c r="F176" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="G175" s="16"/>
-      <c r="H175" s="12" t="s">
+      <c r="G176" s="16"/>
+      <c r="H176" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="I175" s="12"/>
-      <c r="J175" s="12"/>
-      <c r="K175" s="12"/>
-      <c r="L175" s="12"/>
-      <c r="M175" s="12"/>
-      <c r="N175" s="12"/>
-      <c r="O175" s="12"/>
-      <c r="P175" s="12"/>
-    </row>
-    <row r="176" spans="1:16">
-      <c r="A176" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B176" s="20" t="s">
-        <v>961</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="D176" s="22" t="s">
-        <v>962</v>
-      </c>
-      <c r="E176" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="F176" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="G176" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H176" s="11"/>
-      <c r="I176" s="11"/>
-      <c r="J176" s="11"/>
-      <c r="K176" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="L176" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="M176" s="11"/>
-      <c r="N176" s="11"/>
-      <c r="O176" s="11"/>
-      <c r="P176" s="11" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16">
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="12"/>
+      <c r="P176" s="12"/>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="D177" s="11" t="s">
-        <v>965</v>
+      <c r="D177" s="22" t="s">
+        <v>962</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>616</v>
+        <v>563</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>617</v>
+        <v>564</v>
       </c>
       <c r="G177" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H177" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H177" s="11"/>
       <c r="I177" s="11"/>
       <c r="J177" s="11"/>
       <c r="K177" s="11" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="L177" s="11" t="s">
-        <v>619</v>
+        <v>566</v>
       </c>
       <c r="M177" s="11"/>
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
       <c r="P177" s="11" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16">
-      <c r="A178" s="19" t="s">
-        <v>3</v>
+        <v>963</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A178" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>408</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>967</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>32</v>
+        <v>965</v>
+      </c>
+      <c r="E178" s="22" t="s">
+        <v>616</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>968</v>
-      </c>
-      <c r="G178" s="11" t="s">
-        <v>34</v>
+        <v>617</v>
+      </c>
+      <c r="G178" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>967</v>
+        <v>28</v>
       </c>
       <c r="I178" s="11"/>
       <c r="J178" s="11"/>
       <c r="K178" s="11" t="s">
-        <v>969</v>
+        <v>618</v>
       </c>
       <c r="L178" s="11" t="s">
-        <v>21</v>
+        <v>619</v>
       </c>
       <c r="M178" s="11"/>
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
       <c r="P178" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A179" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H179" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L179" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
-      <c r="A179" s="15" t="s">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A180" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B179" s="12" t="s">
+      <c r="B180" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C180" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="D179" s="12" t="s">
+      <c r="D180" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E179" s="16"/>
-      <c r="F179" s="12" t="s">
+      <c r="E180" s="16"/>
+      <c r="F180" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="G179" s="16"/>
-      <c r="H179" s="12" t="s">
+      <c r="G180" s="16"/>
+      <c r="H180" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="I179" s="12"/>
-      <c r="J179" s="12"/>
-      <c r="K179" s="12"/>
-      <c r="L179" s="12"/>
-      <c r="M179" s="12" t="s">
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="N179" s="12"/>
-      <c r="O179" s="12"/>
-      <c r="P179" s="12"/>
-    </row>
-    <row r="180" spans="1:16">
-      <c r="A180" s="19" t="s">
+      <c r="N180" s="12"/>
+      <c r="O180" s="12"/>
+      <c r="P180" s="12"/>
+    </row>
+    <row r="181" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B180" s="20" t="s">
+      <c r="B181" s="20" t="s">
         <v>974</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C181" s="11" t="s">
         <v>972</v>
       </c>
-      <c r="D180" s="11" t="s">
+      <c r="D181" s="11" t="s">
         <v>975</v>
       </c>
-      <c r="E180" s="11" t="s">
+      <c r="E181" s="11" t="s">
         <v>976</v>
       </c>
-      <c r="F180" s="11" t="s">
+      <c r="F181" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G180" s="11" t="s">
+      <c r="G181" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H180" s="11" t="s">
+      <c r="H181" s="11" t="s">
         <v>975</v>
       </c>
-      <c r="I180" s="11" t="s">
+      <c r="I181" s="11" t="s">
         <v>978</v>
       </c>
-      <c r="J180" s="11" t="s">
+      <c r="J181" s="11" t="s">
         <v>978</v>
       </c>
-      <c r="K180" s="11" t="s">
+      <c r="K181" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="L180" s="11" t="s">
+      <c r="L181" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M180" s="11"/>
-      <c r="N180" s="11" t="s">
+      <c r="M181" s="11"/>
+      <c r="N181" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="O180" s="11"/>
-      <c r="P180" s="11" t="s">
+      <c r="O181" s="11"/>
+      <c r="P181" s="11" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="181" spans="1:16" s="18" customFormat="1">
-      <c r="A181" s="17" t="s">
+    <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B181" s="10">
+      <c r="B182" s="10">
         <v>35</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="C182" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D181" s="10" t="s">
+      <c r="D182" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10" t="s">
+      <c r="E182" s="10"/>
+      <c r="F182" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G181" s="10"/>
-      <c r="H181" s="10" t="s">
+      <c r="G182" s="10"/>
+      <c r="H182" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="I181" s="10"/>
-      <c r="J181" s="10"/>
-      <c r="K181" s="10"/>
-      <c r="L181" s="10"/>
-      <c r="M181" s="10"/>
-      <c r="N181" s="10"/>
-      <c r="O181" s="10"/>
-      <c r="P181" s="10"/>
-    </row>
-    <row r="182" spans="1:16" s="18" customFormat="1">
-      <c r="A182" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B182" s="10">
-        <v>371</v>
-      </c>
-      <c r="C182" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D182" s="25" t="s">
-        <v>981</v>
-      </c>
-      <c r="E182" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H182" s="25" t="s">
-        <v>981</v>
       </c>
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
-      <c r="K182" s="10" t="s">
-        <v>982</v>
-      </c>
-      <c r="L182" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="K182" s="10"/>
+      <c r="L182" s="10"/>
       <c r="M182" s="10"/>
       <c r="N182" s="10"/>
       <c r="O182" s="10"/>
-      <c r="P182" s="10" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" s="18" customFormat="1">
+      <c r="P182" s="10"/>
+    </row>
+    <row r="183" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B183" s="10">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C183" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D183" s="10" t="s">
-        <v>984</v>
+      <c r="D183" s="25" t="s">
+        <v>981</v>
       </c>
       <c r="E183" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F183" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="F183" s="10"/>
       <c r="G183" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H183" s="10" t="s">
-        <v>984</v>
+      <c r="H183" s="25" t="s">
+        <v>981</v>
       </c>
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
       <c r="K183" s="10" t="s">
-        <v>102</v>
+        <v>982</v>
       </c>
       <c r="L183" s="10" t="s">
-        <v>985</v>
+        <v>72</v>
       </c>
       <c r="M183" s="10"/>
       <c r="N183" s="10"/>
       <c r="O183" s="10"/>
       <c r="P183" s="10" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" s="18" customFormat="1">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B184" s="10">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C184" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="E184" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G184" s="10" t="s">
         <v>169</v>
       </c>
       <c r="H184" s="10" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
       <c r="K184" s="10" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="L184" s="10" t="s">
-        <v>42</v>
+        <v>985</v>
       </c>
       <c r="M184" s="10"/>
       <c r="N184" s="10"/>
       <c r="O184" s="10"/>
       <c r="P184" s="10" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" s="18" customFormat="1">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B185" s="10">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C185" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E185" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G185" s="10" t="s">
         <v>169</v>
       </c>
       <c r="H185" s="10" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I185" s="10"/>
       <c r="J185" s="10"/>
       <c r="K185" s="10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L185" s="10" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M185" s="10"/>
       <c r="N185" s="10"/>
       <c r="O185" s="10"/>
       <c r="P185" s="10" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" s="18" customFormat="1">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B186" s="10">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C186" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E186" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G186" s="10" t="s">
         <v>169</v>
       </c>
       <c r="H186" s="10" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I186" s="10"/>
       <c r="J186" s="10"/>
       <c r="K186" s="10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L186" s="10" t="s">
         <v>21</v>
@@ -13187,146 +13222,186 @@
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
       <c r="P186" s="10" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" s="18" customFormat="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B187" s="10">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C187" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G187" s="10" t="s">
         <v>169</v>
       </c>
       <c r="H187" s="10" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I187" s="10"/>
       <c r="J187" s="10"/>
       <c r="K187" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L187" s="10" t="s">
-        <v>985</v>
+        <v>21</v>
       </c>
       <c r="M187" s="10"/>
       <c r="N187" s="10"/>
       <c r="O187" s="10"/>
       <c r="P187" s="10" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" s="18" customFormat="1">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B188" s="10"/>
-      <c r="C188" s="10" t="s">
-        <v>995</v>
+        <v>3</v>
+      </c>
+      <c r="B188" s="10">
+        <v>376</v>
+      </c>
+      <c r="C188" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
-      <c r="H188" s="10"/>
+        <v>993</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F188" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G188" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H188" s="10" t="s">
+        <v>993</v>
+      </c>
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
-      <c r="K188" s="10"/>
-      <c r="L188" s="10"/>
+      <c r="K188" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L188" s="10" t="s">
+        <v>985</v>
+      </c>
       <c r="M188" s="10"/>
       <c r="N188" s="10"/>
-      <c r="O188" s="13"/>
-      <c r="P188" s="10"/>
-    </row>
-    <row r="189" spans="1:16" s="18" customFormat="1">
+      <c r="O188" s="10"/>
+      <c r="P188" s="10" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B189" s="10"/>
-      <c r="C189" s="25" t="s">
+      <c r="C189" s="10" t="s">
         <v>995</v>
       </c>
-      <c r="D189" s="25" t="s">
-        <v>996</v>
-      </c>
-      <c r="E189" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F189" s="10" t="s">
-        <v>997</v>
-      </c>
-      <c r="G189" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H189" s="25" t="s">
-        <v>996</v>
-      </c>
+      <c r="D189" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
       <c r="I189" s="10"/>
       <c r="J189" s="10"/>
-      <c r="K189" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="L189" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="K189" s="10"/>
+      <c r="L189" s="10"/>
       <c r="M189" s="10"/>
       <c r="N189" s="10"/>
       <c r="O189" s="13"/>
-      <c r="P189" s="10" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" s="18" customFormat="1">
+      <c r="P189" s="10"/>
+    </row>
+    <row r="190" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B190" s="10"/>
-      <c r="C190" s="10" t="s">
+      <c r="C190" s="25" t="s">
         <v>995</v>
       </c>
-      <c r="D190" s="10" t="s">
-        <v>999</v>
+      <c r="D190" s="25" t="s">
+        <v>996</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="G190" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H190" s="10" t="s">
-        <v>999</v>
+      <c r="H190" s="25" t="s">
+        <v>996</v>
       </c>
       <c r="I190" s="10"/>
       <c r="J190" s="10"/>
       <c r="K190" s="10" t="s">
-        <v>1002</v>
+        <v>133</v>
       </c>
       <c r="L190" s="10" t="s">
-        <v>1003</v>
+        <v>72</v>
       </c>
       <c r="M190" s="10"/>
       <c r="N190" s="10"/>
       <c r="O190" s="13"/>
       <c r="P190" s="10" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A191" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="E191" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G191" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H191" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L191" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M191" s="10"/>
+      <c r="N191" s="10"/>
+      <c r="O191" s="13"/>
+      <c r="P191" s="10" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -13344,19 +13419,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="178.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="178.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1006</v>
       </c>
@@ -13364,43 +13439,43 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
         <v>1008</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
       <c r="B4" s="4" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
       <c r="B5" s="4" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
       <c r="B6" s="4" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="7" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>1014</v>
       </c>
@@ -13408,420 +13483,426 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="4" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
         <v>247</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
         <v>255</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="28"/>
       <c r="B15" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="28"/>
       <c r="B16" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="28"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
         <v>1020</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1">
-      <c r="A19" s="27"/>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>1022</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
         <v>280</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
       <c r="B23" s="3" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
       <c r="B24" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="28"/>
       <c r="B25" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="27"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
         <v>1026</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
       <c r="B28" s="4" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28"/>
       <c r="B29" s="4" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28"/>
       <c r="B30" s="4" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28"/>
       <c r="B31" s="4" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28"/>
       <c r="B32" s="4" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
       <c r="B33" s="4" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
       <c r="B34" s="4" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28"/>
       <c r="B35" s="4" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28"/>
       <c r="B36" s="4" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28"/>
       <c r="B37" s="4" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28"/>
       <c r="B38" s="4" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
       <c r="B39" s="4" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28"/>
       <c r="B40" s="4" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1">
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28"/>
       <c r="B41" s="4" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28"/>
       <c r="B42" s="4" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28"/>
       <c r="B43" s="4" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
       <c r="B44" s="4" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="27"/>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="29"/>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="26" t="s">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="27" t="s">
         <v>136</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="28"/>
       <c r="B47" s="3" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="28"/>
       <c r="B48" s="3" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="28"/>
       <c r="B49" s="4" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
       <c r="B50" s="4" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="28"/>
       <c r="B51" s="4" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="28"/>
       <c r="B52" s="4" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="28"/>
       <c r="B53" s="4" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="28"/>
       <c r="B54" s="4" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="28"/>
       <c r="B55" s="4" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="28"/>
       <c r="B56" s="4" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="28"/>
       <c r="B57" s="4" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="27"/>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="29"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="26" t="s">
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="27" t="s">
         <v>1055</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="28"/>
       <c r="B60" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="28"/>
       <c r="B61" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="27"/>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="29"/>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="26" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="27" t="s">
         <v>1056</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="28"/>
       <c r="B64" s="4" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="28"/>
       <c r="B65" s="3" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30">
+    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="28"/>
       <c r="B66" s="3" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="27"/>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="29"/>
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="26" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="27" t="s">
         <v>1061</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="28"/>
       <c r="B69" s="4" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="28"/>
       <c r="B70" s="4" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="28"/>
       <c r="B71" s="4" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="28"/>
       <c r="B72" s="4" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="28"/>
       <c r="B73" s="3" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="28"/>
       <c r="B74" s="3" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="27"/>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="29"/>
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1">
-      <c r="A76" s="29" t="s">
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="26" t="s">
         <v>1069</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="29"/>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="26"/>
       <c r="B77" s="4" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="29"/>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="26"/>
       <c r="B78" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A45"/>
@@ -13829,12 +13910,6 @@
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="A63:A67"/>
     <mergeCell ref="A68:A75"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14070,6 +14145,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee7d25ce-443e-4f8a-a748-4259b6f1626e">
@@ -14078,15 +14162,6 @@
     <TaxCatchAll xmlns="129c8279-1928-4e9e-bf04-a22cc9c6a884" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14109,6 +14184,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CC759A-AD2F-428D-BC04-038152F44D4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431E4146-98F3-4BF2-97B4-04BCB4BB8676}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -14117,12 +14200,4 @@
     <ds:schemaRef ds:uri="129c8279-1928-4e9e-bf04-a22cc9c6a884"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CC759A-AD2F-428D-BC04-038152F44D4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/schemas/BookingAndRelease_iepd/artifacts/Booking_MappingSpreadsheet.xlsx
+++ b/schemas/BookingAndRelease_iepd/artifacts/Booking_MappingSpreadsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buddi/Desktop/JTMP-Data-Exchange-Specs/schemas/BookingAndRelease_iepd/artifacts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buddi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886070C4-A5B0-1C4B-9F8C-3EBDDA48E023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D21533F-C88D-9B4F-B0E8-C0BFC9BF2C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="1071">
   <si>
     <t>Property Type</t>
   </si>
@@ -2000,29 +2000,7 @@
     <t>/nola:BookingExchange/Case/j:CaseAugmentation/j:CaseCourt/OrganizationLocation/LocationPart/LocationRoomText</t>
   </si>
   <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>CourtTypeCode</t>
-  </si>
-  <si>
-    <t>An augmentation point for CourtType.</t>
-  </si>
-  <si>
-    <t>[{"db": "AS400_JMS",	"table": "IMCHGT",	"fieldDesc": "CourtType",	"field": "CTCTYP"},
-{"db": "AS400_JMS",	"table": "IMARRD",	"fieldDesc": "CourtType",	"field": "IDCTYP"},
-{"db": "AS400_JMS",	"table": "IMDSPL",	"fieldDesc": "CourtType",	"field": "DLCRTT"},
-{"db": "AS400_CDC_CMS",	"table": "JUDGE",	"fieldDesc": "CourtType",	"field": "JT_COURT_TYPE"},
-{"db": "AS400_JMS",	"table": "IMCHGD",	"fieldDesc": "CourtTypeCode",	"field": "ICCRTT"}]</t>
-  </si>
-  <si>
-    <t>j:CourtCategoryCode</t>
-  </si>
-  <si>
     <t>aamva_d20:CourtCategoryCodeType</t>
-  </si>
-  <si>
-    <t>/nola:BookingExchange/Case/j:CaseAugmentation/j:CaseCourt/j:CourtCategoryCode</t>
   </si>
   <si>
     <t>263</t>
@@ -4643,18 +4621,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4667,6 +4633,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5272,8 +5250,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF064094-7F47-BE41-BBAE-756DF04C616C}" name="MappingSpreadsheet32" displayName="MappingSpreadsheet32" ref="A1:P191" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="A1:P191" xr:uid="{AF064094-7F47-BE41-BBAE-756DF04C616C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF064094-7F47-BE41-BBAE-756DF04C616C}" name="MappingSpreadsheet32" displayName="MappingSpreadsheet32" ref="A1:P190" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="A1:P190" xr:uid="{AF064094-7F47-BE41-BBAE-756DF04C616C}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F42B62ED-D9CE-F940-A2BF-ED65FA02AF14}" name="Property Type" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{11AEDBC7-D98C-E14A-A838-95401F272177}" name="ID" dataDxfId="14"/>
@@ -5593,10 +5571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B390143-938F-D746-8797-AAFFA7809748}">
-  <dimension ref="A1:P191"/>
+  <dimension ref="A1:P190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E56" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8186,45 +8164,45 @@
       </c>
     </row>
     <row r="63" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="32" t="s">
+      <c r="B63" s="27"/>
+      <c r="C63" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="D63" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G63" s="32" t="s">
+      <c r="D63" s="29" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G63" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H63" s="32" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I63" s="32" t="s">
+      <c r="H63" s="28" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I63" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="J63" s="32" t="s">
+      <c r="J63" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="K63" s="32" t="s">
-        <v>1075</v>
-      </c>
-      <c r="L63" s="34" t="s">
-        <v>452</v>
-      </c>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="34" t="s">
-        <v>1076</v>
+      <c r="K63" s="28" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L63" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="30" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -8718,187 +8696,187 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="F76" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="L76" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G78" s="16"/>
+      <c r="H78" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="G76" s="11" t="s">
+      <c r="B80" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="G80" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H76" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="J76" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="L76" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="G77" s="16"/>
-      <c r="H77" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="L77" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="L78" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="12" t="s">
+      <c r="H80" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="G79" s="16"/>
-      <c r="H79" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="L79" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="D80" s="22" t="s">
+      <c r="I80" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="E80" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="F80" s="11" t="s">
+      <c r="J80" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="K80" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="G80" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11" t="s">
-        <v>422</v>
-      </c>
       <c r="L80" s="11" t="s">
-        <v>423</v>
+        <v>193</v>
       </c>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
@@ -8908,41 +8886,33 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
-        <v>3</v>
+      <c r="A81" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>469</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="D81" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D81" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="E81" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F81" s="11" t="s">
+      <c r="E81" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="G81" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="I81" s="11" t="s">
+      <c r="F81" s="22"/>
+      <c r="G81" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="J81" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="K81" s="11" t="s">
+      <c r="L81" s="11" t="s">
         <v>473</v>
-      </c>
-      <c r="L81" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -8952,76 +8922,84 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="16"/>
+      <c r="F82" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="G82" s="16"/>
+      <c r="H82" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="L82" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="G83" s="16"/>
-      <c r="H83" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="12"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
-        <v>3</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>484</v>
@@ -9032,29 +9010,25 @@
       <c r="D84" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="E84" s="11" t="s">
-        <v>32</v>
+      <c r="E84" s="22" t="s">
+        <v>320</v>
       </c>
       <c r="F84" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G84" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="G84" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="H84" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="I84" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="J84" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="K84" s="11" t="s">
+      <c r="L84" s="11" t="s">
         <v>488</v>
-      </c>
-      <c r="L84" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -9064,115 +9038,119 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="20" t="s">
+      <c r="A85" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D85" s="11" t="s">
+      <c r="C85" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="E85" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="G85" s="22" t="s">
+      <c r="D85" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11" t="s">
+      <c r="G85" s="16"/>
+      <c r="H85" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="L85" s="11" t="s">
+      <c r="L85" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11" t="s">
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="20" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="12" t="s">
+      <c r="C86" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="E86" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="D86" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="16"/>
-      <c r="F86" s="12" t="s">
+      <c r="G86" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="I86" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="G86" s="16"/>
-      <c r="H86" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12" t="s">
+      <c r="J86" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="L86" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B87" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="D87" s="11" t="s">
+      <c r="E87" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" s="11" t="s">
         <v>502</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>503</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I87" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L87" s="11" t="s">
         <v>504</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="L87" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -9189,16 +9167,16 @@
         <v>506</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>507</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>68</v>
+        <v>508</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G88" s="11" t="s">
         <v>34</v>
@@ -9207,97 +9185,93 @@
         <v>507</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>77</v>
+        <v>511</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="G89" s="16"/>
+      <c r="H89" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="F89" s="11" t="s">
+      <c r="B90" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="D90" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H89" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="K89" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="L89" s="11" t="s">
+      <c r="H90" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="12" t="s">
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="L90" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="D90" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="12" t="s">
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="G90" s="16"/>
-      <c r="H90" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
@@ -9307,16 +9281,16 @@
         <v>523</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>524</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>197</v>
+        <v>525</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>34</v>
@@ -9327,16 +9301,16 @@
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
       <c r="K91" s="11" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
@@ -9344,16 +9318,16 @@
         <v>3</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>531</v>
+        <v>32</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>532</v>
@@ -9362,15 +9336,19 @@
         <v>34</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
+        <v>531</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>533</v>
+      </c>
       <c r="K92" s="11" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>534</v>
+        <v>21</v>
       </c>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
@@ -9387,16 +9365,16 @@
         <v>536</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>537</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>32</v>
+        <v>538</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>34</v>
@@ -9405,22 +9383,22 @@
         <v>537</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>21</v>
+        <v>542</v>
       </c>
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
@@ -9428,37 +9406,37 @@
         <v>3</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>544</v>
+        <v>32</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>548</v>
+        <v>21</v>
       </c>
       <c r="M94" s="11"/>
       <c r="N94" s="11"/>
@@ -9475,7 +9453,7 @@
         <v>550</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>551</v>
@@ -9512,112 +9490,108 @@
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="16"/>
+      <c r="F96" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="G96" s="16"/>
+      <c r="H96" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="L96" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="20" t="s">
-        <v>556</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="D96" s="11" t="s">
+      <c r="B97" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="D97" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="E97" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F96" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="G96" s="11" t="s">
+      <c r="F97" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G97" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H96" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="J96" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="K96" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="L96" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A97" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="12" t="s">
+      <c r="H97" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C97" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="16"/>
-      <c r="F97" s="12" t="s">
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="G97" s="16"/>
-      <c r="H97" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12" t="s">
+      <c r="L97" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="L97" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B98" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="D98" s="11" t="s">
         <v>567</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>568</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
       <c r="K98" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L98" s="11" t="s">
         <v>72</v>
@@ -9626,313 +9600,317 @@
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
       <c r="P98" s="11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A99" s="19" t="s">
+      <c r="C99" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="G99" s="16"/>
+      <c r="H99" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="L99" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="M99" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B101" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="C99" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="E99" s="11" t="s">
+      <c r="D101" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="G99" s="11" t="s">
+      <c r="F101" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="G101" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="L99" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11"/>
-      <c r="O99" s="11"/>
-      <c r="P99" s="11" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A100" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="16"/>
-      <c r="F100" s="12" t="s">
-        <v>579</v>
-      </c>
-      <c r="G100" s="16"/>
-      <c r="H100" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="L100" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="M100" s="12" t="s">
+      <c r="H101" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A101" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="G101" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H101" s="11"/>
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
       <c r="K101" s="11" t="s">
-        <v>270</v>
+        <v>583</v>
       </c>
       <c r="L101" s="11" t="s">
-        <v>585</v>
+        <v>21</v>
       </c>
       <c r="M101" s="11"/>
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11" t="s">
-        <v>272</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="16"/>
+      <c r="F102" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="G102" s="16"/>
+      <c r="H102" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+    </row>
+    <row r="103" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="D102" s="11" t="s">
+      <c r="B103" s="20" t="s">
         <v>587</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="C103" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="E103" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F102" s="11" t="s">
+      <c r="F103" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="G102" s="11" t="s">
+      <c r="I103" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="G104" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H102" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="L102" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A103" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="C103" s="12" t="s">
+      <c r="H104" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="L104" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D103" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E103" s="16"/>
-      <c r="F103" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="G103" s="16"/>
-      <c r="H103" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="12"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
-    </row>
-    <row r="104" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>593</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="G104" s="11" t="s">
+      <c r="D105" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="G105" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H104" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="J104" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="K104" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="L104" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="D105" s="10" t="s">
+      <c r="H105" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E105" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10" t="s">
+      <c r="I105" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="L105" s="10" t="s">
+      <c r="J105" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="K105" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10"/>
-      <c r="O105" s="10"/>
-      <c r="P105" s="10" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D106" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="F106" s="13" t="s">
         <v>605</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>606</v>
       </c>
       <c r="G106" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I106" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="K106" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="J106" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="K106" s="13" t="s">
-        <v>192</v>
-      </c>
       <c r="L106" s="13" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="M106" s="13"/>
       <c r="N106" s="13"/>
@@ -9942,83 +9920,79 @@
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="16"/>
+      <c r="F107" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="G107" s="16"/>
+      <c r="H107" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="L107" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A108" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D107" s="13" t="s">
+      <c r="B108" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="E107" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>611</v>
-      </c>
-      <c r="G107" s="13" t="s">
+      <c r="D108" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G108" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H107" s="13" t="s">
-        <v>610</v>
-      </c>
-      <c r="I107" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="J107" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="K107" s="13" t="s">
-        <v>613</v>
-      </c>
-      <c r="L107" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A108" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="C108" s="12" t="s">
+      <c r="H108" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="D108" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="16"/>
-      <c r="F108" s="12" t="s">
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="G108" s="16"/>
-      <c r="H108" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12" t="s">
+      <c r="L108" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11" t="s">
         <v>618</v>
-      </c>
-      <c r="L108" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
@@ -10026,30 +10000,30 @@
         <v>3</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>569</v>
+        <v>621</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L109" s="11" t="s">
         <v>72</v>
@@ -10058,7 +10032,7 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
@@ -10066,30 +10040,30 @@
         <v>3</v>
       </c>
       <c r="B110" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="D110" s="11" t="s">
         <v>625</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>626</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>627</v>
+        <v>568</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
       <c r="K110" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L110" s="11" t="s">
         <v>72</v>
@@ -10098,263 +10072,267 @@
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
       <c r="P110" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A111" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="16"/>
+      <c r="F111" s="12" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A111" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="20" t="s">
+      <c r="G111" s="16"/>
+      <c r="H111" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="C111" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="L111" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="11"/>
-      <c r="P111" s="11" t="s">
-        <v>633</v>
-      </c>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="16"/>
       <c r="F112" s="12" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G112" s="16"/>
       <c r="H112" s="12" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
-      <c r="M112" s="12" t="s">
-        <v>636</v>
-      </c>
+      <c r="M112" s="12"/>
       <c r="N112" s="12"/>
       <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
+      <c r="P112" s="12" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="K113" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A114" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="D113" s="12" t="s">
+      <c r="B114" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="D114" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E113" s="16"/>
-      <c r="F113" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="G113" s="16"/>
-      <c r="H113" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A114" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="D114" s="11" t="s">
+      <c r="E114" s="16"/>
+      <c r="F114" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="G114" s="16"/>
+      <c r="H114" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="E114" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>640</v>
-      </c>
-      <c r="I114" s="11" t="s">
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="J114" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="K114" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="L114" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="11"/>
-      <c r="P114" s="11" t="s">
-        <v>644</v>
-      </c>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>646</v>
+        <v>140</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E115" s="16"/>
       <c r="F115" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G115" s="16"/>
       <c r="H115" s="12" t="s">
-        <v>646</v>
+        <v>140</v>
       </c>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
       <c r="M115" s="12" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="N115" s="12"/>
       <c r="O115" s="12"/>
       <c r="P115" s="12"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A116" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="12" t="s">
+      <c r="A116" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="16"/>
-      <c r="F116" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="G116" s="16"/>
-      <c r="H116" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D117" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="F117" s="11" t="s">
         <v>652</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>653</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L117" s="11" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="M117" s="11"/>
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
       <c r="P117" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
@@ -10362,40 +10340,42 @@
         <v>3</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>419</v>
+        <v>32</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H118" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K118" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="I118" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="J118" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="K118" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="L118" s="11" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="M118" s="11"/>
-      <c r="N118" s="11"/>
+      <c r="N118" s="11" t="s">
+        <v>658</v>
+      </c>
       <c r="O118" s="11"/>
       <c r="P118" s="11" t="s">
         <v>659</v>
@@ -10427,136 +10407,130 @@
         <v>661</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>28</v>
+        <v>663</v>
       </c>
       <c r="J119" s="11" t="s">
-        <v>28</v>
+        <v>663</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L119" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M119" s="11"/>
-      <c r="N119" s="11" t="s">
-        <v>664</v>
-      </c>
+      <c r="N119" s="11"/>
       <c r="O119" s="11"/>
       <c r="P119" s="11" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A120" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B120" s="20" t="s">
+      <c r="A120" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="C120" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D120" s="11" t="s">
+      <c r="C120" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" s="16"/>
+      <c r="F120" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="E120" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F120" s="11" t="s">
+      <c r="G120" s="16"/>
+      <c r="H120" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A121" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="20" t="s">
         <v>668</v>
       </c>
-      <c r="G120" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="I120" s="11" t="s">
+      <c r="C121" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D121" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="J120" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="K120" s="11" t="s">
+      <c r="E121" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="F121" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="L120" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M120" s="11"/>
-      <c r="N120" s="11"/>
-      <c r="O120" s="11"/>
-      <c r="P120" s="11" t="s">
+      <c r="G121" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A121" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" s="12" t="s">
+      <c r="L121" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" s="16"/>
-      <c r="F121" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="G121" s="16"/>
-      <c r="H121" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="12"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="12"/>
-      <c r="P121" s="12"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B122" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D122" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="C122" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="D122" s="22" t="s">
+      <c r="E122" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="F122" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="E122" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>676</v>
-      </c>
       <c r="G122" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H122" s="11"/>
+        <v>151</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="I122" s="11"/>
       <c r="J122" s="11"/>
       <c r="K122" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="L122" s="11" t="s">
         <v>677</v>
-      </c>
-      <c r="L122" s="11" t="s">
-        <v>534</v>
       </c>
       <c r="M122" s="11"/>
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
       <c r="P122" s="11" t="s">
-        <v>678</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
@@ -10564,19 +10538,19 @@
         <v>22</v>
       </c>
       <c r="B123" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D123" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="C123" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="D123" s="11" t="s">
+      <c r="E123" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="F123" s="11" t="s">
         <v>680</v>
-      </c>
-      <c r="E123" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>681</v>
       </c>
       <c r="G123" s="22" t="s">
         <v>151</v>
@@ -10587,10 +10561,10 @@
       <c r="I123" s="11"/>
       <c r="J123" s="11"/>
       <c r="K123" s="11" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="L123" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M123" s="11"/>
       <c r="N123" s="11"/>
@@ -10600,76 +10574,74 @@
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A124" s="21" t="s">
-        <v>22</v>
+      <c r="A124" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="B124" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F124" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="C124" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="D124" s="11" t="s">
+      <c r="G124" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="I124" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="E124" s="22" t="s">
+      <c r="J124" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="F124" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="H124" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I124" s="11"/>
-      <c r="J124" s="11"/>
       <c r="K124" s="11" t="s">
-        <v>682</v>
+        <v>270</v>
       </c>
       <c r="L124" s="11" t="s">
-        <v>687</v>
+        <v>271</v>
       </c>
       <c r="M124" s="11"/>
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
       <c r="P124" s="11" t="s">
-        <v>165</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A125" s="19" t="s">
-        <v>3</v>
+      <c r="A125" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>268</v>
+        <v>630</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>572</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>690</v>
-      </c>
-      <c r="G125" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="G125" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H125" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="I125" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="J125" s="11" t="s">
-        <v>691</v>
-      </c>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
       <c r="K125" s="11" t="s">
         <v>270</v>
       </c>
@@ -10688,37 +10660,39 @@
         <v>22</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="D126" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="F126" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="E126" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>690</v>
-      </c>
       <c r="G126" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H126" s="11"/>
+        <v>486</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="I126" s="11"/>
       <c r="J126" s="11"/>
       <c r="K126" s="11" t="s">
-        <v>270</v>
+        <v>690</v>
       </c>
       <c r="L126" s="11" t="s">
-        <v>271</v>
+        <v>691</v>
       </c>
       <c r="M126" s="11"/>
       <c r="N126" s="11"/>
       <c r="O126" s="11"/>
       <c r="P126" s="11" t="s">
-        <v>272</v>
+        <v>692</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
@@ -10729,105 +10703,105 @@
         <v>693</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="D127" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D127" s="22" t="s">
         <v>694</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="F127" s="11" t="s">
         <v>695</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="H127" s="11" t="s">
-        <v>28</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="H127" s="11"/>
       <c r="I127" s="11"/>
       <c r="J127" s="11"/>
       <c r="K127" s="11" t="s">
         <v>696</v>
       </c>
       <c r="L127" s="11" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="M127" s="11"/>
       <c r="N127" s="11"/>
       <c r="O127" s="11"/>
       <c r="P127" s="11" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A128" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="12" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A128" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B128" s="20" t="s">
+      <c r="C128" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" s="16"/>
+      <c r="F128" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="C128" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="D128" s="22" t="s">
+      <c r="G128" s="16"/>
+      <c r="H128" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="12"/>
+      <c r="P128" s="12"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A129" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="E128" s="22" t="s">
-        <v>694</v>
-      </c>
-      <c r="F128" s="11" t="s">
+      <c r="C129" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="D129" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="G128" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11" t="s">
+      <c r="E129" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="L128" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="M128" s="11"/>
-      <c r="N128" s="11"/>
-      <c r="O128" s="11"/>
-      <c r="P128" s="11" t="s">
+      <c r="F129" s="11" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A129" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="12" t="s">
+      <c r="G129" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="C129" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" s="16"/>
-      <c r="F129" s="12" t="s">
+      <c r="L129" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="G129" s="16"/>
-      <c r="H129" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="12"/>
-      <c r="M129" s="12"/>
-      <c r="N129" s="12"/>
-      <c r="O129" s="12"/>
-      <c r="P129" s="12"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="s">
@@ -10837,7 +10811,7 @@
         <v>706</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>707</v>
@@ -10854,19 +10828,25 @@
       <c r="H130" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="I130" s="11"/>
-      <c r="J130" s="11"/>
+      <c r="I130" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>710</v>
+      </c>
       <c r="K130" s="11" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L130" s="11" t="s">
-        <v>21</v>
+        <v>712</v>
       </c>
       <c r="M130" s="11"/>
       <c r="N130" s="11"/>
-      <c r="O130" s="11"/>
+      <c r="O130" s="11" t="s">
+        <v>713</v>
+      </c>
       <c r="P130" s="11" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
@@ -10874,45 +10854,43 @@
         <v>3</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>714</v>
+        <v>32</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="K131" s="11" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L131" s="11" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="M131" s="11"/>
       <c r="N131" s="11"/>
-      <c r="O131" s="11" t="s">
-        <v>719</v>
-      </c>
+      <c r="O131" s="11"/>
       <c r="P131" s="11" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
@@ -10920,37 +10898,37 @@
         <v>3</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J132" s="11" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L132" s="11" t="s">
-        <v>726</v>
+        <v>21</v>
       </c>
       <c r="M132" s="11"/>
       <c r="N132" s="11"/>
@@ -10967,16 +10945,16 @@
         <v>728</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D133" s="11" t="s">
         <v>729</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>32</v>
+        <v>730</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>34</v>
@@ -10985,22 +10963,24 @@
         <v>729</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J133" s="11" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="K133" s="11" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L133" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M133" s="11"/>
       <c r="N133" s="11"/>
-      <c r="O133" s="11"/>
+      <c r="O133" s="11" t="s">
+        <v>713</v>
+      </c>
       <c r="P133" s="11" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
@@ -11008,45 +10988,45 @@
         <v>3</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>736</v>
+        <v>175</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>737</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>34</v>
+        <v>738</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="J134" s="11" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="K134" s="11" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L134" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M134" s="11"/>
-      <c r="N134" s="11"/>
-      <c r="O134" s="11" t="s">
-        <v>719</v>
-      </c>
+      <c r="N134" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="O134" s="11"/>
       <c r="P134" s="11" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
@@ -11054,45 +11034,47 @@
         <v>3</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>175</v>
+        <v>745</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="G135" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="H135" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="H135" s="11" t="s">
-        <v>742</v>
-      </c>
       <c r="I135" s="11" t="s">
-        <v>745</v>
+        <v>28</v>
       </c>
       <c r="J135" s="11" t="s">
-        <v>745</v>
+        <v>28</v>
       </c>
       <c r="K135" s="11" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L135" s="11" t="s">
-        <v>21</v>
+        <v>748</v>
       </c>
       <c r="M135" s="11"/>
       <c r="N135" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="O135" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="O135" s="11"/>
       <c r="P135" s="11" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
@@ -11100,45 +11082,41 @@
         <v>3</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>751</v>
+        <v>32</v>
       </c>
       <c r="F136" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H136" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="G136" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="H136" s="11" t="s">
-        <v>750</v>
-      </c>
       <c r="I136" s="11" t="s">
-        <v>28</v>
+        <v>754</v>
       </c>
       <c r="J136" s="11" t="s">
-        <v>28</v>
+        <v>754</v>
       </c>
       <c r="K136" s="11" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="L136" s="11" t="s">
-        <v>754</v>
+        <v>21</v>
       </c>
       <c r="M136" s="11"/>
-      <c r="N136" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="O136" s="11" t="s">
-        <v>753</v>
-      </c>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
       <c r="P136" s="11" t="s">
         <v>756</v>
       </c>
@@ -11151,7 +11129,7 @@
         <v>757</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D137" s="11" t="s">
         <v>758</v>
@@ -11175,54 +11153,48 @@
         <v>760</v>
       </c>
       <c r="K137" s="11" t="s">
-        <v>761</v>
+        <v>47</v>
       </c>
       <c r="L137" s="11" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M137" s="11"/>
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
       <c r="P137" s="11" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A138" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" s="20" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A138" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B138" s="20" t="s">
+      <c r="C138" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="D138" s="22" t="s">
         <v>763</v>
       </c>
-      <c r="C138" s="11" t="s">
-        <v>680</v>
-      </c>
-      <c r="D138" s="11" t="s">
+      <c r="E138" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="F138" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="E138" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F138" s="11" t="s">
+      <c r="G138" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="G138" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>764</v>
-      </c>
-      <c r="I138" s="11" t="s">
+      <c r="L138" s="11" t="s">
         <v>766</v>
-      </c>
-      <c r="J138" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="K138" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L138" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="M138" s="11"/>
       <c r="N138" s="11"/>
@@ -11232,35 +11204,41 @@
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A139" s="21" t="s">
-        <v>22</v>
+      <c r="A139" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="B139" s="20" t="s">
         <v>768</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>680</v>
-      </c>
-      <c r="D139" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="D139" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="E139" s="22" t="s">
-        <v>521</v>
+      <c r="E139" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F139" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="G139" s="22" t="s">
+      <c r="G139" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
-      <c r="J139" s="11"/>
+      <c r="H139" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>771</v>
+      </c>
       <c r="K139" s="11" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L139" s="11" t="s">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="M139" s="11"/>
       <c r="N139" s="11"/>
@@ -11277,7 +11255,7 @@
         <v>774</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>775</v>
@@ -11308,9 +11286,11 @@
       </c>
       <c r="M140" s="11"/>
       <c r="N140" s="11"/>
-      <c r="O140" s="11"/>
+      <c r="O140" s="11" t="s">
+        <v>779</v>
+      </c>
       <c r="P140" s="11" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
@@ -11318,43 +11298,41 @@
         <v>3</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>32</v>
+        <v>783</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>782</v>
+        <v>724</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J141" s="11" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="K141" s="11" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="L141" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M141" s="11"/>
       <c r="N141" s="11"/>
-      <c r="O141" s="11" t="s">
-        <v>785</v>
-      </c>
+      <c r="O141" s="11"/>
       <c r="P141" s="11" t="s">
         <v>786</v>
       </c>
@@ -11367,16 +11345,16 @@
         <v>787</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>788</v>
       </c>
       <c r="E142" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F142" s="11" t="s">
         <v>789</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>730</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>34</v>
@@ -11394,7 +11372,7 @@
         <v>791</v>
       </c>
       <c r="L142" s="11" t="s">
-        <v>21</v>
+        <v>542</v>
       </c>
       <c r="M142" s="11"/>
       <c r="N142" s="11"/>
@@ -11411,13 +11389,13 @@
         <v>793</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D143" s="11" t="s">
         <v>794</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>544</v>
+        <v>175</v>
       </c>
       <c r="F143" s="11" t="s">
         <v>795</v>
@@ -11438,7 +11416,7 @@
         <v>797</v>
       </c>
       <c r="L143" s="11" t="s">
-        <v>548</v>
+        <v>21</v>
       </c>
       <c r="M143" s="11"/>
       <c r="N143" s="11"/>
@@ -11448,121 +11426,121 @@
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A144" s="19" t="s">
+      <c r="A144" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="16"/>
+      <c r="F144" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="G144" s="16"/>
+      <c r="H144" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="12"/>
+      <c r="P144" s="12"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A145" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B144" s="20" t="s">
-        <v>799</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>680</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F144" s="11" t="s">
+      <c r="B145" s="20" t="s">
         <v>801</v>
       </c>
-      <c r="G144" s="11" t="s">
+      <c r="C145" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="G145" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H144" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I144" s="11" t="s">
+      <c r="H145" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="J144" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="K144" s="11" t="s">
-        <v>803</v>
-      </c>
-      <c r="L144" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M144" s="11"/>
-      <c r="N144" s="11"/>
-      <c r="O144" s="11"/>
-      <c r="P144" s="11" t="s">
+      <c r="I145" s="11" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A145" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" s="12" t="s">
+      <c r="J145" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="K145" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L145" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="C145" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="16"/>
-      <c r="F145" s="12" t="s">
-        <v>806</v>
-      </c>
-      <c r="G145" s="16"/>
-      <c r="H145" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="I145" s="12"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="12"/>
-      <c r="M145" s="12"/>
-      <c r="N145" s="12"/>
-      <c r="O145" s="12"/>
-      <c r="P145" s="12"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B146" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="D146" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="C146" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="D146" s="11" t="s">
+      <c r="E146" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="F146" s="11" t="s">
         <v>808</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>809</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J146" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K146" s="11" t="s">
-        <v>133</v>
+        <v>511</v>
       </c>
       <c r="L146" s="11" t="s">
-        <v>72</v>
+        <v>512</v>
       </c>
       <c r="M146" s="11"/>
       <c r="N146" s="11"/>
       <c r="O146" s="11"/>
       <c r="P146" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
@@ -11570,43 +11548,43 @@
         <v>3</v>
       </c>
       <c r="B147" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="D147" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="C147" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="D147" s="11" t="s">
+      <c r="E147" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F147" s="11" t="s">
         <v>813</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>814</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J147" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K147" s="11" t="s">
-        <v>517</v>
+        <v>133</v>
       </c>
       <c r="L147" s="11" t="s">
-        <v>518</v>
+        <v>72</v>
       </c>
       <c r="M147" s="11"/>
       <c r="N147" s="11"/>
       <c r="O147" s="11"/>
       <c r="P147" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
@@ -11614,129 +11592,129 @@
         <v>3</v>
       </c>
       <c r="B148" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="D148" s="11" t="s">
         <v>817</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>818</v>
       </c>
       <c r="E148" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I148" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="K148" s="11" t="s">
         <v>820</v>
-      </c>
-      <c r="J148" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="K148" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="L148" s="11" t="s">
         <v>72</v>
       </c>
       <c r="M148" s="11"/>
-      <c r="N148" s="11"/>
+      <c r="N148" s="11" t="s">
+        <v>821</v>
+      </c>
       <c r="O148" s="11"/>
       <c r="P148" s="11" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A149" s="19" t="s">
-        <v>3</v>
+      <c r="A149" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>823</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>32</v>
+        <v>824</v>
+      </c>
+      <c r="E149" s="22" t="s">
+        <v>491</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="G149" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="G149" s="22" t="s">
         <v>34</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>823</v>
-      </c>
-      <c r="I149" s="11" t="s">
-        <v>825</v>
-      </c>
-      <c r="J149" s="11" t="s">
-        <v>825</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
       <c r="K149" s="11" t="s">
-        <v>826</v>
+        <v>493</v>
       </c>
       <c r="L149" s="11" t="s">
-        <v>72</v>
+        <v>494</v>
       </c>
       <c r="M149" s="11"/>
-      <c r="N149" s="11" t="s">
-        <v>827</v>
-      </c>
+      <c r="N149" s="11"/>
       <c r="O149" s="11"/>
       <c r="P149" s="11" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A150" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F150" s="11" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A150" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B150" s="20" t="s">
+      <c r="G150" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="I150" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="C150" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E150" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="G150" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I150" s="11"/>
-      <c r="J150" s="11"/>
+      <c r="J150" s="11" t="s">
+        <v>829</v>
+      </c>
       <c r="K150" s="11" t="s">
-        <v>499</v>
+        <v>133</v>
       </c>
       <c r="L150" s="11" t="s">
-        <v>500</v>
+        <v>72</v>
       </c>
       <c r="M150" s="11"/>
       <c r="N150" s="11"/>
       <c r="O150" s="11"/>
       <c r="P150" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
@@ -11744,31 +11722,31 @@
         <v>3</v>
       </c>
       <c r="B151" s="20" t="s">
+        <v>831</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="D151" s="11" t="s">
         <v>832</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>833</v>
       </c>
       <c r="E151" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J151" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K151" s="11" t="s">
         <v>133</v>
@@ -11780,7 +11758,7 @@
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
       <c r="P151" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
@@ -11788,31 +11766,31 @@
         <v>3</v>
       </c>
       <c r="B152" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="D152" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="E152" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J152" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K152" s="11" t="s">
         <v>133</v>
@@ -11824,7 +11802,7 @@
       <c r="N152" s="11"/>
       <c r="O152" s="11"/>
       <c r="P152" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
@@ -11832,122 +11810,122 @@
         <v>3</v>
       </c>
       <c r="B153" s="20" t="s">
+        <v>841</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="D153" s="11" t="s">
         <v>842</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>843</v>
       </c>
       <c r="E153" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K153" s="11" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="L153" s="11" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="M153" s="11"/>
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
       <c r="P153" s="11" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A154" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="12" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A154" s="19" t="s">
+      <c r="C154" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154" s="16"/>
+      <c r="F154" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="G154" s="16"/>
+      <c r="H154" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="L154" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="12"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A155" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="20" t="s">
-        <v>847</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="D154" s="11" t="s">
+      <c r="B155" s="20" t="s">
         <v>848</v>
       </c>
-      <c r="E154" s="11" t="s">
+      <c r="C155" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="E155" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F154" s="11" t="s">
+      <c r="F155" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H155" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="G154" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H154" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="I154" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="J154" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="K154" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L154" s="11" t="s">
+      <c r="I155" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="J155" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="K155" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="L155" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M154" s="11"/>
-      <c r="N154" s="11"/>
-      <c r="O154" s="11"/>
-      <c r="P154" s="11" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A155" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>852</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="16"/>
-      <c r="F155" s="12" t="s">
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11" t="s">
         <v>853</v>
       </c>
-      <c r="G155" s="16"/>
-      <c r="H155" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="L155" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="M155" s="12"/>
-      <c r="N155" s="12"/>
-      <c r="O155" s="12"/>
-      <c r="P155" s="12"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="19" t="s">
@@ -11957,7 +11935,7 @@
         <v>854</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D156" s="11" t="s">
         <v>855</v>
@@ -11975,13 +11953,13 @@
         <v>855</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="J156" s="11" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="K156" s="11" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="L156" s="11" t="s">
         <v>21</v>
@@ -11990,7 +11968,7 @@
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
       <c r="P156" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
@@ -11998,43 +11976,45 @@
         <v>3</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E157" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F157" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="K157" s="11" t="s">
         <v>862</v>
       </c>
-      <c r="G157" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H157" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="I157" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="J157" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="K157" s="11" t="s">
-        <v>858</v>
-      </c>
       <c r="L157" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M157" s="11"/>
+        <v>863</v>
+      </c>
+      <c r="M157" s="11" t="s">
+        <v>630</v>
+      </c>
       <c r="N157" s="11"/>
       <c r="O157" s="11"/>
       <c r="P157" s="11" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
@@ -12042,41 +12022,39 @@
         <v>3</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E158" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K158" s="11" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L158" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="M158" s="11" t="s">
-        <v>636</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="M158" s="11"/>
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
       <c r="P158" s="11" t="s">
@@ -12091,7 +12069,7 @@
         <v>871</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>872</v>
@@ -12118,9 +12096,11 @@
         <v>875</v>
       </c>
       <c r="L159" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="M159" s="11"/>
+        <v>863</v>
+      </c>
+      <c r="M159" s="11" t="s">
+        <v>630</v>
+      </c>
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
       <c r="P159" s="11" t="s">
@@ -12135,7 +12115,7 @@
         <v>877</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>878</v>
@@ -12162,10 +12142,10 @@
         <v>881</v>
       </c>
       <c r="L160" s="11" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="M160" s="11" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
@@ -12181,7 +12161,7 @@
         <v>883</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>884</v>
@@ -12208,10 +12188,10 @@
         <v>887</v>
       </c>
       <c r="L161" s="11" t="s">
-        <v>869</v>
+        <v>21</v>
       </c>
       <c r="M161" s="11" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
@@ -12227,7 +12207,7 @@
         <v>889</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>890</v>
@@ -12239,7 +12219,7 @@
         <v>891</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="H162" s="11" t="s">
         <v>890</v>
@@ -12254,11 +12234,9 @@
         <v>893</v>
       </c>
       <c r="L162" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M162" s="11" t="s">
-        <v>636</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="M162" s="11"/>
       <c r="N162" s="11"/>
       <c r="O162" s="11"/>
       <c r="P162" s="11" t="s">
@@ -12273,7 +12251,7 @@
         <v>895</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D163" s="11" t="s">
         <v>896</v>
@@ -12300,7 +12278,7 @@
         <v>899</v>
       </c>
       <c r="L163" s="11" t="s">
-        <v>869</v>
+        <v>21</v>
       </c>
       <c r="M163" s="11"/>
       <c r="N163" s="11"/>
@@ -12310,121 +12288,121 @@
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A164" s="19" t="s">
+      <c r="A164" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" s="16"/>
+      <c r="F164" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="G164" s="16"/>
+      <c r="H164" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
+      <c r="P164" s="12"/>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A165" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="20" t="s">
-        <v>901</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>694</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>902</v>
-      </c>
-      <c r="E164" s="11" t="s">
+      <c r="B165" s="20" t="s">
+        <v>903</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="E165" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F164" s="11" t="s">
-        <v>903</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H164" s="11" t="s">
-        <v>902</v>
-      </c>
-      <c r="I164" s="11" t="s">
+      <c r="F165" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H165" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="J164" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="K164" s="11" t="s">
-        <v>905</v>
-      </c>
-      <c r="L164" s="11" t="s">
+      <c r="I165" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="J165" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="K165" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="L165" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M164" s="11"/>
-      <c r="N164" s="11"/>
-      <c r="O164" s="11"/>
-      <c r="P164" s="11" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A165" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B165" s="12" t="s">
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+      <c r="O165" s="11"/>
+      <c r="P165" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="C165" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="D165" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E165" s="16"/>
-      <c r="F165" s="12" t="s">
-        <v>908</v>
-      </c>
-      <c r="G165" s="16"/>
-      <c r="H165" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="I165" s="12"/>
-      <c r="J165" s="12"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="12"/>
-      <c r="M165" s="12"/>
-      <c r="N165" s="12"/>
-      <c r="O165" s="12"/>
-      <c r="P165" s="12"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>281</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G166" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I166" s="11" t="s">
+        <v>911</v>
+      </c>
+      <c r="J166" s="11" t="s">
+        <v>911</v>
+      </c>
+      <c r="K166" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="J166" s="11" t="s">
-        <v>912</v>
-      </c>
-      <c r="K166" s="11" t="s">
-        <v>643</v>
-      </c>
       <c r="L166" s="11" t="s">
-        <v>21</v>
+        <v>913</v>
       </c>
       <c r="M166" s="11"/>
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
       <c r="P166" s="11" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
@@ -12432,43 +12410,43 @@
         <v>3</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>281</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G167" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="J167" s="11" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="K167" s="11" t="s">
-        <v>918</v>
+        <v>192</v>
       </c>
       <c r="L167" s="11" t="s">
-        <v>919</v>
+        <v>193</v>
       </c>
       <c r="M167" s="11"/>
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
       <c r="P167" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
@@ -12476,31 +12454,31 @@
         <v>3</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>281</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E168" s="11" t="s">
         <v>188</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G168" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J168" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K168" s="11" t="s">
         <v>192</v>
@@ -12512,82 +12490,82 @@
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
       <c r="P168" s="11" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A169" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" s="12" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A169" s="19" t="s">
+      <c r="C169" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169" s="16"/>
+      <c r="F169" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="G169" s="16"/>
+      <c r="H169" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="12"/>
+      <c r="P169" s="12"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A170" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B169" s="20" t="s">
-        <v>926</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="D169" s="11" t="s">
+      <c r="B170" s="20" t="s">
         <v>927</v>
       </c>
-      <c r="E169" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F169" s="11" t="s">
+      <c r="C170" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D170" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="G169" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H169" s="11" t="s">
-        <v>927</v>
-      </c>
-      <c r="I169" s="11" t="s">
+      <c r="E170" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F170" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="J169" s="11" t="s">
-        <v>929</v>
-      </c>
-      <c r="K169" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="L169" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="M169" s="11"/>
-      <c r="N169" s="11"/>
-      <c r="O169" s="11"/>
-      <c r="P169" s="11" t="s">
+      <c r="G170" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="I170" s="11" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A170" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B170" s="12" t="s">
+      <c r="J170" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="K170" s="11" t="s">
         <v>931</v>
       </c>
-      <c r="C170" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E170" s="16"/>
-      <c r="F170" s="12" t="s">
+      <c r="L170" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M170" s="11"/>
+      <c r="N170" s="11"/>
+      <c r="O170" s="11"/>
+      <c r="P170" s="11" t="s">
         <v>932</v>
       </c>
-      <c r="G170" s="16"/>
-      <c r="H170" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="I170" s="12"/>
-      <c r="J170" s="12"/>
-      <c r="K170" s="12"/>
-      <c r="L170" s="12"/>
-      <c r="M170" s="12"/>
-      <c r="N170" s="12"/>
-      <c r="O170" s="12"/>
-      <c r="P170" s="12"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="19" t="s">
@@ -12600,37 +12578,37 @@
         <v>367</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>934</v>
+        <v>366</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G171" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H171" s="11" t="s">
-        <v>934</v>
+        <v>366</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J171" s="11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K171" s="11" t="s">
-        <v>937</v>
+        <v>133</v>
       </c>
       <c r="L171" s="11" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="M171" s="11"/>
       <c r="N171" s="11"/>
       <c r="O171" s="11"/>
       <c r="P171" s="11" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
@@ -12638,31 +12616,31 @@
         <v>3</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>367</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>366</v>
+        <v>938</v>
       </c>
       <c r="E172" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G172" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>366</v>
+        <v>938</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J172" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K172" s="11" t="s">
         <v>133</v>
@@ -12674,7 +12652,7 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
       <c r="P172" s="11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
@@ -12682,34 +12660,34 @@
         <v>3</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>367</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="G173" s="11" t="s">
         <v>169</v>
       </c>
       <c r="H173" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="I173" s="11" t="s">
         <v>944</v>
       </c>
-      <c r="I173" s="11" t="s">
-        <v>946</v>
-      </c>
       <c r="J173" s="11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="K173" s="11" t="s">
-        <v>133</v>
+        <v>945</v>
       </c>
       <c r="L173" s="11" t="s">
         <v>72</v>
@@ -12718,7 +12696,7 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
       <c r="P173" s="11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
@@ -12726,25 +12704,25 @@
         <v>3</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>367</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E174" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I174" s="11" t="s">
         <v>950</v>
@@ -12756,353 +12734,349 @@
         <v>951</v>
       </c>
       <c r="L174" s="11" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="M174" s="11"/>
-      <c r="N174" s="11"/>
+      <c r="N174" s="11" t="s">
+        <v>952</v>
+      </c>
       <c r="O174" s="11"/>
       <c r="P174" s="11" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A175" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B175" s="20" t="s">
-        <v>953</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="D175" s="11" t="s">
+      <c r="A175" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175" s="12" t="s">
         <v>954</v>
       </c>
-      <c r="E175" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F175" s="11" t="s">
+      <c r="C175" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175" s="16"/>
+      <c r="F175" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="G175" s="16"/>
+      <c r="H175" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+      <c r="O175" s="12"/>
+      <c r="P175" s="12"/>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A176" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" s="20" t="s">
         <v>955</v>
       </c>
-      <c r="G175" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H175" s="11" t="s">
-        <v>954</v>
-      </c>
-      <c r="I175" s="11" t="s">
+      <c r="C176" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D176" s="22" t="s">
         <v>956</v>
       </c>
-      <c r="J175" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="K175" s="11" t="s">
+      <c r="E176" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="G176" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L176" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="O176" s="11"/>
+      <c r="P176" s="11" t="s">
         <v>957</v>
       </c>
-      <c r="L175" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M175" s="11"/>
-      <c r="N175" s="11" t="s">
-        <v>958</v>
-      </c>
-      <c r="O175" s="11"/>
-      <c r="P175" s="11" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A176" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B176" s="12" t="s">
-        <v>960</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="D176" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E176" s="16"/>
-      <c r="F176" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="G176" s="16"/>
-      <c r="H176" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="I176" s="12"/>
-      <c r="J176" s="12"/>
-      <c r="K176" s="12"/>
-      <c r="L176" s="12"/>
-      <c r="M176" s="12"/>
-      <c r="N176" s="12"/>
-      <c r="O176" s="12"/>
-      <c r="P176" s="12"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="D177" s="22" t="s">
-        <v>962</v>
+      <c r="D177" s="11" t="s">
+        <v>959</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="G177" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H177" s="11"/>
+      <c r="H177" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="I177" s="11"/>
       <c r="J177" s="11"/>
       <c r="K177" s="11" t="s">
-        <v>565</v>
+        <v>612</v>
       </c>
       <c r="L177" s="11" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
       <c r="M177" s="11"/>
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
       <c r="P177" s="11" t="s">
-        <v>963</v>
+        <v>614</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178" s="21" t="s">
-        <v>22</v>
+      <c r="A178" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>408</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="E178" s="22" t="s">
-        <v>616</v>
+        <v>961</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="G178" s="22" t="s">
-        <v>169</v>
+        <v>962</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>28</v>
+        <v>961</v>
       </c>
       <c r="I178" s="11"/>
       <c r="J178" s="11"/>
       <c r="K178" s="11" t="s">
-        <v>618</v>
+        <v>963</v>
       </c>
       <c r="L178" s="11" t="s">
-        <v>619</v>
+        <v>21</v>
       </c>
       <c r="M178" s="11"/>
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
       <c r="P178" s="11" t="s">
-        <v>620</v>
+        <v>964</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A179" s="19" t="s">
+      <c r="A179" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>965</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E179" s="16"/>
+      <c r="F179" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="G179" s="16"/>
+      <c r="H179" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="N179" s="12"/>
+      <c r="O179" s="12"/>
+      <c r="P179" s="12"/>
+    </row>
+    <row r="180" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B179" s="20" t="s">
+      <c r="B180" s="20" t="s">
+        <v>968</v>
+      </c>
+      <c r="C180" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="C179" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>967</v>
-      </c>
-      <c r="E179" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>968</v>
-      </c>
-      <c r="G179" s="11" t="s">
+      <c r="D180" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="G180" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H179" s="11" t="s">
-        <v>967</v>
-      </c>
-      <c r="I179" s="11"/>
-      <c r="J179" s="11"/>
-      <c r="K179" s="11" t="s">
+      <c r="H180" s="11" t="s">
         <v>969</v>
       </c>
-      <c r="L179" s="11" t="s">
+      <c r="I180" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="J180" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="K180" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="L180" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M179" s="11"/>
-      <c r="N179" s="11"/>
-      <c r="O179" s="11"/>
-      <c r="P179" s="11" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A180" s="15" t="s">
+      <c r="M180" s="11"/>
+      <c r="N180" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="O180" s="11"/>
+      <c r="P180" s="11" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B180" s="12" t="s">
-        <v>971</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>972</v>
-      </c>
-      <c r="D180" s="12" t="s">
+      <c r="B181" s="10">
+        <v>35</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E180" s="16"/>
-      <c r="F180" s="12" t="s">
-        <v>973</v>
-      </c>
-      <c r="G180" s="16"/>
-      <c r="H180" s="12" t="s">
-        <v>972</v>
-      </c>
-      <c r="I180" s="12"/>
-      <c r="J180" s="12"/>
-      <c r="K180" s="12"/>
-      <c r="L180" s="12"/>
-      <c r="M180" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="N180" s="12"/>
-      <c r="O180" s="12"/>
-      <c r="P180" s="12"/>
-    </row>
-    <row r="181" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B181" s="20" t="s">
-        <v>974</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>972</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>975</v>
-      </c>
-      <c r="E181" s="11" t="s">
-        <v>976</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>977</v>
-      </c>
-      <c r="G181" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H181" s="11" t="s">
-        <v>975</v>
-      </c>
-      <c r="I181" s="11" t="s">
-        <v>978</v>
-      </c>
-      <c r="J181" s="11" t="s">
-        <v>978</v>
-      </c>
-      <c r="K181" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="L181" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M181" s="11"/>
-      <c r="N181" s="11" t="s">
-        <v>979</v>
-      </c>
-      <c r="O181" s="11"/>
-      <c r="P181" s="11" t="s">
-        <v>980</v>
-      </c>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I181" s="10"/>
+      <c r="J181" s="10"/>
+      <c r="K181" s="10"/>
+      <c r="L181" s="10"/>
+      <c r="M181" s="10"/>
+      <c r="N181" s="10"/>
+      <c r="O181" s="10"/>
+      <c r="P181" s="10"/>
     </row>
     <row r="182" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B182" s="10">
-        <v>35</v>
-      </c>
-      <c r="C182" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C182" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D182" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G182" s="10"/>
-      <c r="H182" s="10" t="s">
-        <v>25</v>
+      <c r="D182" s="25" t="s">
+        <v>975</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H182" s="25" t="s">
+        <v>975</v>
       </c>
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
-      <c r="K182" s="10"/>
-      <c r="L182" s="10"/>
+      <c r="K182" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="L182" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="M182" s="10"/>
       <c r="N182" s="10"/>
       <c r="O182" s="10"/>
-      <c r="P182" s="10"/>
+      <c r="P182" s="10" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="183" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B183" s="10">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C183" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D183" s="25" t="s">
-        <v>981</v>
+      <c r="D183" s="10" t="s">
+        <v>978</v>
       </c>
       <c r="E183" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F183" s="10"/>
+      <c r="F183" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="G183" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H183" s="25" t="s">
-        <v>981</v>
+      <c r="H183" s="10" t="s">
+        <v>978</v>
       </c>
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
       <c r="K183" s="10" t="s">
-        <v>982</v>
+        <v>102</v>
       </c>
       <c r="L183" s="10" t="s">
-        <v>72</v>
+        <v>979</v>
       </c>
       <c r="M183" s="10"/>
       <c r="N183" s="10"/>
       <c r="O183" s="10"/>
       <c r="P183" s="10" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="184" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -13110,39 +13084,39 @@
         <v>3</v>
       </c>
       <c r="B184" s="10">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C184" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E184" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G184" s="10" t="s">
         <v>169</v>
       </c>
       <c r="H184" s="10" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
       <c r="K184" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="L184" s="10" t="s">
-        <v>985</v>
+        <v>42</v>
       </c>
       <c r="M184" s="10"/>
       <c r="N184" s="10"/>
       <c r="O184" s="10"/>
       <c r="P184" s="10" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="185" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -13150,39 +13124,39 @@
         <v>3</v>
       </c>
       <c r="B185" s="10">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C185" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E185" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G185" s="10" t="s">
         <v>169</v>
       </c>
       <c r="H185" s="10" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="I185" s="10"/>
       <c r="J185" s="10"/>
       <c r="K185" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L185" s="10" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M185" s="10"/>
       <c r="N185" s="10"/>
       <c r="O185" s="10"/>
       <c r="P185" s="10" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="186" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -13190,30 +13164,30 @@
         <v>3</v>
       </c>
       <c r="B186" s="10">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C186" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="E186" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G186" s="10" t="s">
         <v>169</v>
       </c>
       <c r="H186" s="10" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="I186" s="10"/>
       <c r="J186" s="10"/>
       <c r="K186" s="10" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L186" s="10" t="s">
         <v>21</v>
@@ -13222,7 +13196,7 @@
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
       <c r="P186" s="10" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="187" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -13230,179 +13204,139 @@
         <v>3</v>
       </c>
       <c r="B187" s="10">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C187" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G187" s="10" t="s">
         <v>169</v>
       </c>
       <c r="H187" s="10" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="I187" s="10"/>
       <c r="J187" s="10"/>
       <c r="K187" s="10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L187" s="10" t="s">
-        <v>21</v>
+        <v>979</v>
       </c>
       <c r="M187" s="10"/>
       <c r="N187" s="10"/>
       <c r="O187" s="10"/>
       <c r="P187" s="10" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="188" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B188" s="10">
-        <v>376</v>
-      </c>
-      <c r="C188" s="25" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10" t="s">
+        <v>989</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>993</v>
-      </c>
-      <c r="E188" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F188" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G188" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H188" s="10" t="s">
-        <v>993</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
-      <c r="K188" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L188" s="10" t="s">
-        <v>985</v>
-      </c>
+      <c r="K188" s="10"/>
+      <c r="L188" s="10"/>
       <c r="M188" s="10"/>
       <c r="N188" s="10"/>
-      <c r="O188" s="10"/>
-      <c r="P188" s="10" t="s">
-        <v>994</v>
-      </c>
+      <c r="O188" s="13"/>
+      <c r="P188" s="10"/>
     </row>
     <row r="189" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B189" s="10"/>
-      <c r="C189" s="10" t="s">
-        <v>995</v>
-      </c>
-      <c r="D189" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
-      <c r="H189" s="10"/>
+      <c r="C189" s="25" t="s">
+        <v>989</v>
+      </c>
+      <c r="D189" s="25" t="s">
+        <v>990</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="G189" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H189" s="25" t="s">
+        <v>990</v>
+      </c>
       <c r="I189" s="10"/>
       <c r="J189" s="10"/>
-      <c r="K189" s="10"/>
-      <c r="L189" s="10"/>
+      <c r="K189" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="L189" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="M189" s="10"/>
       <c r="N189" s="10"/>
       <c r="O189" s="13"/>
-      <c r="P189" s="10"/>
-    </row>
-    <row r="190" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P189" s="10" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B190" s="10"/>
-      <c r="C190" s="25" t="s">
+      <c r="C190" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="F190" s="10" t="s">
         <v>995</v>
-      </c>
-      <c r="D190" s="25" t="s">
-        <v>996</v>
-      </c>
-      <c r="E190" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F190" s="10" t="s">
-        <v>997</v>
       </c>
       <c r="G190" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H190" s="25" t="s">
-        <v>996</v>
+      <c r="H190" s="10" t="s">
+        <v>993</v>
       </c>
       <c r="I190" s="10"/>
       <c r="J190" s="10"/>
       <c r="K190" s="10" t="s">
-        <v>133</v>
+        <v>996</v>
       </c>
       <c r="L190" s="10" t="s">
-        <v>72</v>
+        <v>997</v>
       </c>
       <c r="M190" s="10"/>
       <c r="N190" s="10"/>
       <c r="O190" s="13"/>
       <c r="P190" s="10" t="s">
         <v>998</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A191" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B191" s="10"/>
-      <c r="C191" s="10" t="s">
-        <v>995</v>
-      </c>
-      <c r="D191" s="10" t="s">
-        <v>999</v>
-      </c>
-      <c r="E191" s="10" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F191" s="10" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G191" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H191" s="10" t="s">
-        <v>999</v>
-      </c>
-      <c r="I191" s="10"/>
-      <c r="J191" s="10"/>
-      <c r="K191" s="10" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L191" s="10" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M191" s="10"/>
-      <c r="N191" s="10"/>
-      <c r="O191" s="13"/>
-      <c r="P191" s="10" t="s">
-        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -13428,481 +13362,475 @@
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="4" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="7" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>1008</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="4" t="s">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="4" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="4" t="s">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="3" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="7" t="s">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="3" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
         <v>1014</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="4" t="s">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="3" t="s">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="3" t="s">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="31" t="s">
         <v>1020</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="4" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
+      <c r="B36" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="33"/>
+      <c r="B37" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="4" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="4" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="33"/>
+      <c r="B41" s="4" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="3" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="3" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="3" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="4" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="4" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="4" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="4" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="4" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="4" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="4" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="4" t="s">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="33"/>
+      <c r="B42" s="4" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="4" t="s">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="33"/>
+      <c r="B43" s="4" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="4" t="s">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="4" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="4" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+      <c r="B47" s="3" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="4" t="s">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="33"/>
+      <c r="B48" s="3" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
-      <c r="B40" s="4" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="33"/>
+      <c r="B49" s="4" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="4" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="4" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="33"/>
+      <c r="B50" s="4" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="4" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="33"/>
+      <c r="B51" s="4" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="4" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="33"/>
+      <c r="B52" s="4" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="29"/>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="3" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="33"/>
+      <c r="B53" s="4" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="3" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="33"/>
+      <c r="B54" s="4" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="4" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="33"/>
+      <c r="B55" s="4" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="4" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="33"/>
+      <c r="B56" s="4" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="4" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="33"/>
+      <c r="B57" s="4" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
-      <c r="B52" s="4" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="32"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="31" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
-      <c r="B53" s="4" t="s">
+      <c r="B59" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="33"/>
+      <c r="B60" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="33"/>
+      <c r="B61" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="32"/>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="31" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-      <c r="B55" s="4" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="33"/>
+      <c r="B64" s="4" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
-      <c r="B56" s="4" t="s">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="33"/>
+      <c r="B65" s="3" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
-      <c r="B57" s="4" t="s">
+    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="33"/>
+      <c r="B66" s="3" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="29"/>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="27" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="32"/>
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
         <v>1055</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="3" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="3" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="27" t="s">
+      <c r="B68" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="B63" s="4" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="33"/>
+      <c r="B69" s="4" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="4" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="33"/>
+      <c r="B70" s="4" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="3" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="33"/>
+      <c r="B71" s="4" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
-      <c r="B66" s="3" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="33"/>
+      <c r="B72" s="4" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="29"/>
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="27" t="s">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="33"/>
+      <c r="B73" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="B68" s="4" t="s">
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="33"/>
+      <c r="B74" s="3" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
-      <c r="B69" s="4" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="32"/>
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="34" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
-      <c r="B70" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="4" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="34"/>
+      <c r="B77" s="4" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="28"/>
-      <c r="B72" s="4" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="28"/>
-      <c r="B73" s="3" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="28"/>
-      <c r="B74" s="3" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="29"/>
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="26" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="26"/>
-      <c r="B77" s="4" t="s">
-        <v>1071</v>
-      </c>
-    </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="26"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A45"/>
@@ -13910,6 +13838,12 @@
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="A63:A67"/>
     <mergeCell ref="A68:A75"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14145,15 +14079,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee7d25ce-443e-4f8a-a748-4259b6f1626e">
@@ -14162,6 +14087,15 @@
     <TaxCatchAll xmlns="129c8279-1928-4e9e-bf04-a22cc9c6a884" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14184,14 +14118,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CC759A-AD2F-428D-BC04-038152F44D4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431E4146-98F3-4BF2-97B4-04BCB4BB8676}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -14200,4 +14126,12 @@
     <ds:schemaRef ds:uri="129c8279-1928-4e9e-bf04-a22cc9c6a884"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CC759A-AD2F-428D-BC04-038152F44D4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>